--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\喬宇\Desktop\github\roll-check-app-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B62DB83F-64C4-9448-B885-0F9647198022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D98F6D60-DBE3-1141-AC4F-D848ABFDA4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -420,10 +420,6 @@
     <t>W3 #5 改造 300 驅動輥輪 舊品拆裝</t>
   </si>
   <si>
-    <t>Keyway 數量&lt;= 該編號的軸位再生數量。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>W3 #5 機  Ø300 Roller 軸頸未再生車修一端</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -510,6 +506,9 @@
   </si>
   <si>
     <t>全廠輥輪動平衡 輥輪動平衡</t>
+  </si>
+  <si>
+    <t>豁免</t>
   </si>
 </sst>
 </file>
@@ -915,10 +914,10 @@
   </sheetPr>
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="C3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -951,10 +950,10 @@
     </row>
     <row r="2" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -962,23 +961,23 @@
         <v>104</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>109</v>
@@ -986,7 +985,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G5" t="s">
         <v>1</v>
@@ -994,13 +993,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -1025,7 +1024,7 @@
         <v>76</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1085,7 +1084,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>113</v>
@@ -1094,7 +1093,7 @@
         <v>109</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>114</v>
@@ -1187,7 +1186,7 @@
         <v>122</v>
       </c>
       <c r="B26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>111</v>
@@ -1198,20 +1197,20 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1247,7 +1246,7 @@
     </row>
     <row r="31" spans="1:6" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="1" t="s">
@@ -1260,7 +1259,7 @@
         <v>109</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
@@ -1304,7 +1303,7 @@
         <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>109</v>
@@ -1352,7 +1351,7 @@
         <v>35</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
@@ -1360,7 +1359,7 @@
         <v>36</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
@@ -1368,7 +1367,7 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
@@ -1379,7 +1378,7 @@
         <v>38</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
@@ -1485,7 +1484,7 @@
         <v>83</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>112</v>
@@ -1676,7 +1675,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B63" t="s">
         <v>62</v>

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\喬宇\Desktop\github\roll-check-app-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D98F6D60-DBE3-1141-AC4F-D848ABFDA4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDC9452E-5AF1-0948-9805-F94CB43E3702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="151">
   <si>
     <t>Item_Name</t>
   </si>
@@ -351,10 +351,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(通用)流程依賴檢查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Logic_Prompt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -391,10 +387,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>豁免(通用)流程依賴檢查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1PC=4個編號數</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -472,33 +464,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0602A 車修至直徑135mm~129mm且無裂痕 | 0602A 車修至直徑145mm~130mm且無裂痕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(通用)軸頸依賴性檢查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[流程依賴] 若出現此工序，則該編號的「軸頸未再生車修」數據必須存在，否則判定為幽靈工件。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>須符合規格</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[幽靈工件偵測] 若此項目屬於「後段製程」(如再生、銲補、研磨)，
-請搜尋全卷資料中，該輥輪編號 (Roll ID) 是否存在對應的「前段製程」(未再生/粗胚) 紀錄，順序依序為「未再生車、銲補、再生車修、研磨」，若只有後段而無前段，判定為 FAIL (幽靈工件/流程中斷)。</t>
   </si>
   <si>
     <t>1.規格必須是一個數值區間，實測尺寸包含於規範區間合格。
 2.若有多項規格，符合其一即可。</t>
   </si>
   <si>
-    <t>實測2PC=運費1PC</t>
-  </si>
-  <si>
     <t>全廠 ROLL(全部)KEYWAY CUT KEYWAY CUTTING</t>
   </si>
   <si>
@@ -509,6 +482,12 @@
   </si>
   <si>
     <t>豁免</t>
+  </si>
+  <si>
+    <t>2=1</t>
+  </si>
+  <si>
+    <t>0602A 車修至直徑135mm~129mm且無裂痕 | 0602A 車修至直徑145mm~130mm且無裂痕</t>
   </si>
 </sst>
 </file>
@@ -912,12 +891,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="C2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -936,595 +915,610 @@
         <v>75</v>
       </c>
       <c r="C1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" t="s">
         <v>106</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>107</v>
       </c>
-      <c r="E1" t="s">
-        <v>108</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" t="s">
-        <v>146</v>
+      <c r="B4" t="s">
+        <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" t="s">
+        <v>82</v>
+      </c>
       <c r="F5" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>12</v>
+      <c r="A15" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>141</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="7" t="s">
-        <v>16</v>
+      <c r="A17" t="s">
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>114</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>23</v>
+      <c r="A21" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>115</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>25</v>
+      <c r="A22" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>117</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B25" t="s">
-        <v>121</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>110</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B26" t="s">
-        <v>125</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>110</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B27" t="s">
-        <v>126</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="C30" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A31" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="D32" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F32" s="8"/>
+        <v>108</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>102</v>
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>29</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D33" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F33" s="8"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>132</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>133</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>81</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="4" t="s">
-        <v>85</v>
+        <v>45</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>109</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D48" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="E48" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B50" t="s">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>109</v>
@@ -1532,16 +1526,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>109</v>
@@ -1549,186 +1543,152 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D54" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A58" s="5" t="s">
-        <v>95</v>
+      <c r="A58" t="s">
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>55</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A59" s="5" t="s">
-        <v>96</v>
+      <c r="A59" t="s">
+        <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>56</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>57</v>
-      </c>
-      <c r="B60" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
-        <v>59</v>
+      <c r="A61" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>61</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>77</v>
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A63" s="6" t="s">
-        <v>135</v>
+      <c r="A63" t="s">
+        <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
-        <v>71</v>
-      </c>
-      <c r="B68" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69" t="s">
-        <v>73</v>
-      </c>
-      <c r="B69" t="s">
         <v>74</v>
       </c>
     </row>

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\喬宇\Desktop\github\roll-check-app-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDC9452E-5AF1-0948-9805-F94CB43E3702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4DBECC3-33E4-B84D-8DA7-053113510974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="142">
   <si>
     <t>Item_Name</t>
   </si>
@@ -893,10 +893,10 @@
   </sheetPr>
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="C2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1276,9 +1276,7 @@
       <c r="B33" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\喬宇\Desktop\github\roll-check-app-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4DBECC3-33E4-B84D-8DA7-053113510974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34FB56F7-5523-6F49-8ACD-3E872F61C4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="144">
   <si>
     <t>Item_Name</t>
   </si>
@@ -488,6 +488,12 @@
   </si>
   <si>
     <t>0602A 車修至直徑135mm~129mm且無裂痕 | 0602A 車修至直徑145mm~130mm且無裂痕</t>
+  </si>
+  <si>
+    <t>Category_Rule</t>
+  </si>
+  <si>
+    <t>再生車修</t>
   </si>
 </sst>
 </file>
@@ -891,23 +897,24 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="69.0546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.6015625" customWidth="1"/>
-    <col min="3" max="5" width="20.75390625" customWidth="1"/>
-    <col min="6" max="6" width="70.65234375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.4375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="20.75390625" customWidth="1"/>
+    <col min="7" max="7" width="70.65234375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -915,102 +922,105 @@
         <v>75</v>
       </c>
       <c r="C1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" t="s">
         <v>105</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>106</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>136</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>138</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>82</v>
-      </c>
       <c r="D5" t="s">
         <v>82</v>
       </c>
       <c r="E5" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G5" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1018,7 +1028,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1026,7 +1036,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1034,7 +1044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1042,24 +1052,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>141</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="E15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1067,7 +1078,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1075,7 +1086,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1083,7 +1094,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1091,7 +1102,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1099,188 +1110,202 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B21" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B22" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="3"/>
+      <c r="D22" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B23" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="3"/>
+      <c r="D23" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B24" t="s">
         <v>123</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B25" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="3"/>
       <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B26" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="1"/>
+      <c r="C26" s="3"/>
       <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="3"/>
+      <c r="D27" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F27" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="3"/>
+      <c r="D28" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="F28" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="E29" s="1" t="s">
         <v>108</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="3"/>
+      <c r="D30" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F30" s="8"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="3"/>
+      <c r="D31" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>27</v>
       </c>
       <c r="B32" t="s">
         <v>130</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E32" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B33" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="1"/>
+      <c r="C33" s="3"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -1288,39 +1313,40 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="3"/>
+      <c r="D35" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1328,18 +1354,18 @@
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>78</v>
       </c>
       <c r="B39" t="s">
         <v>38</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -1347,7 +1373,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -1355,7 +1381,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -1363,7 +1389,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1371,243 +1397,257 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>85</v>
       </c>
       <c r="B44" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="4"/>
+      <c r="D44" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="E44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B45" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="5"/>
+      <c r="D45" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="E45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B46" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="5"/>
+      <c r="D46" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E46" s="1"/>
+      <c r="F46" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
         <v>87</v>
       </c>
       <c r="B47" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="5"/>
+      <c r="D47" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="E47" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F47" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B48" t="s">
         <v>132</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="5"/>
+      <c r="D48" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="E48" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F48" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B49" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="5"/>
+      <c r="D49" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="E49" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F49" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B50" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="5"/>
+      <c r="D50" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="E50" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F50" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
         <v>90</v>
       </c>
       <c r="B51" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="5"/>
+      <c r="D51" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="E51" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F51" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B52" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="5"/>
+      <c r="D52" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="E52" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
         <v>92</v>
       </c>
       <c r="B53" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="5"/>
+      <c r="D53" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="E53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B54" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="5"/>
+      <c r="D54" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="E54" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
         <v>94</v>
       </c>
       <c r="B55" t="s">
         <v>54</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="5"/>
+      <c r="D55" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="E55" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F55" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
         <v>95</v>
       </c>
       <c r="B56" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="5"/>
+      <c r="D56" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="E56" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F56" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B57" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="5"/>
+      <c r="D57" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="E57" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F57" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -1615,7 +1655,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -1623,26 +1663,27 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>61</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="6" t="s">
         <v>133</v>
       </c>
       <c r="B61" t="s">
         <v>62</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="C61" s="6"/>
+      <c r="G61" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -1650,7 +1691,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -1658,7 +1699,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>67</v>
       </c>

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\喬宇\Desktop\github\roll-check-app-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34FB56F7-5523-6F49-8ACD-3E872F61C4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6074E06-BBEF-5F47-9F7D-432857C7BC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="148">
   <si>
     <t>Item_Name</t>
   </si>
   <si>
-    <t>0118A 480°C ±10°C | 0118A 500°C ±10°C | 0118A 520°C ±10°C | 0118A 530°C ±10°C | 0118A 560°C ±10°C | 0118A 570°C ±10°C | 0118A 600°C ±10°C | 0118A 620°C ±10°C</t>
-  </si>
-  <si>
     <t>0800A 動平衡測試一、Ø920允許差值1780.77g 二、Ø520允許差值1818.41g | 0800A 動平衡測試允許差值328.09g以下 | 0800A 動平衡測試允許差值572.94g</t>
   </si>
   <si>
@@ -269,9 +266,6 @@
     <t>WX ROLL攻牙</t>
   </si>
   <si>
-    <t>1.所有項目尺寸必須完全一樣。</t>
-  </si>
-  <si>
     <t>中龍#1&amp;#2 COILER PINCH TOP ROLL軸頸端面ψ920 鑽孔攻牙</t>
   </si>
   <si>
@@ -284,9 +278,6 @@
     <t>中龍#1&amp;#2 COILER PINCH TOP ROLL軸頸端面ψ520 KEY WAY銑槽</t>
   </si>
   <si>
-    <t>此項目視為軸頸銲補</t>
-  </si>
-  <si>
     <t>W3 #6 機 改造 驅動輥內孔車修(1SET=4PCS) 內孔車修(1SET)</t>
   </si>
   <si>
@@ -347,10 +338,6 @@
     <t>0663A 直徑303mm以上</t>
   </si>
   <si>
-    <t>尺寸為N/A即PASS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Logic_Prompt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -371,26 +358,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1SET=1PC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1SET=3PC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1 SET=4 PC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1SET=2PC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1PC=4個編號數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>W3 #5 改造 250 驅動輥輪 新品組裝</t>
   </si>
   <si>
@@ -440,14 +415,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>這個項目不是軸頸未再生車修，只是名子很像。這是一個獨立的施工項目，不屬於本體或軸頸的流程。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>無視規範溫度，編號欄位的KG值等於統計表頭實交數量KG值即PASS。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0669A 一、車修內徑45mm +0,+0.039二、車修內徑50mm +0,+0.039</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -468,10 +435,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.規格必須是一個數值區間，實測尺寸包含於規範區間合格。
-2.若有多項規格，符合其一即可。</t>
-  </si>
-  <si>
     <t>全廠 ROLL(全部)KEYWAY CUT KEYWAY CUTTING</t>
   </si>
   <si>
@@ -484,9 +447,6 @@
     <t>豁免</t>
   </si>
   <si>
-    <t>2=1</t>
-  </si>
-  <si>
     <t>0602A 車修至直徑135mm~129mm且無裂痕 | 0602A 車修至直徑145mm~130mm且無裂痕</t>
   </si>
   <si>
@@ -494,6 +454,30 @@
   </si>
   <si>
     <t>再生車修</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>3PC=1PC</t>
+  </si>
+  <si>
+    <t>1SET=4PC</t>
+  </si>
+  <si>
+    <t>1PC=4PC</t>
+  </si>
+  <si>
+    <t>A,4PC=1PC</t>
+  </si>
+  <si>
+    <t>4PC=1PC</t>
+  </si>
+  <si>
+    <t>2PC=1PC</t>
+  </si>
+  <si>
+    <t>軸頸銲補</t>
   </si>
 </sst>
 </file>
@@ -897,285 +881,266 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="69.0546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.9296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.6015625" customWidth="1"/>
-    <col min="3" max="3" width="13.4375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.4375" customWidth="1"/>
     <col min="4" max="6" width="20.75390625" customWidth="1"/>
     <col min="7" max="7" width="70.65234375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>75</v>
       </c>
-      <c r="C1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="G6" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="B15" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
         <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
         <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
         <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
         <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
         <v>25</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="1"/>
@@ -1183,10 +1148,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B26" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="1"/>
@@ -1194,541 +1159,507 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
       <c r="D28" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="24.75" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="3" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>108</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="F30" s="1"/>
       <c r="G30" s="8"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>108</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="F31" s="1"/>
       <c r="G31" s="8"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" t="s">
+        <v>132</v>
+      </c>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B32" t="s">
-        <v>130</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="3" t="s">
+      <c r="B33" t="s">
         <v>28</v>
-      </c>
-      <c r="B33" t="s">
-        <v>29</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
         <v>30</v>
       </c>
-      <c r="B34" t="s">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
+      <c r="B35" t="s">
         <v>32</v>
-      </c>
-      <c r="B35" t="s">
-        <v>33</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
         <v>78</v>
       </c>
-      <c r="B39" t="s">
-        <v>38</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
         <v>79</v>
       </c>
-      <c r="B40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+    </row>
+    <row r="44" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B44" t="s">
-        <v>44</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="1" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="1" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="1" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B48" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="1" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="1" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="1" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="1" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="1" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="1" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="1" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="1" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="1" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="1" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
+      <c r="B59" t="s">
         <v>59</v>
       </c>
-      <c r="B59" t="s">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" t="s">
         <v>61</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61" s="6" t="s">
+      <c r="C61" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E61" t="s">
         <v>133</v>
       </c>
-      <c r="B61" t="s">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="6"/>
-      <c r="G61" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
+      <c r="B62" t="s">
         <v>63</v>
       </c>
-      <c r="B62" t="s">
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
+      <c r="B63" t="s">
         <v>65</v>
       </c>
-      <c r="B63" t="s">
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
+      <c r="B64" t="s">
         <v>67</v>
-      </c>
-      <c r="B64" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
         <v>69</v>
-      </c>
-      <c r="B65" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" t="s">
         <v>71</v>
-      </c>
-      <c r="B66" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" t="s">
         <v>73</v>
-      </c>
-      <c r="B67" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\喬宇\Desktop\github\roll-check-app-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6074E06-BBEF-5F47-9F7D-432857C7BC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6775930C-DF32-1740-AE01-D5F2BF1A0538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="149">
   <si>
     <t>Item_Name</t>
   </si>
@@ -465,9 +465,6 @@
     <t>1SET=4PC</t>
   </si>
   <si>
-    <t>1PC=4PC</t>
-  </si>
-  <si>
     <t>A,4PC=1PC</t>
   </si>
   <si>
@@ -477,7 +474,7 @@
     <t>2PC=1PC</t>
   </si>
   <si>
-    <t>軸頸銲補</t>
+    <t>銲補</t>
   </si>
 </sst>
 </file>
@@ -883,10 +880,10 @@
   </sheetPr>
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="G32" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -954,7 +951,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -1032,7 +1029,7 @@
         <v>133</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -1357,10 +1354,10 @@
         <v>135</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1375,10 +1372,10 @@
         <v>135</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
@@ -1390,10 +1387,10 @@
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="F46" s="1"/>
     </row>
@@ -1409,7 +1406,7 @@
         <v>135</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F47" s="1"/>
     </row>
@@ -1425,7 +1422,7 @@
         <v>135</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F48" s="1"/>
     </row>
@@ -1441,7 +1438,7 @@
         <v>135</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F49" s="1"/>
     </row>
@@ -1457,7 +1454,7 @@
         <v>135</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F50" s="1"/>
     </row>
@@ -1473,7 +1470,7 @@
         <v>135</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F51" s="1"/>
     </row>
@@ -1489,10 +1486,10 @@
         <v>135</v>
       </c>
       <c r="E52" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
@@ -1507,10 +1504,10 @@
         <v>135</v>
       </c>
       <c r="E53" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
@@ -1525,10 +1522,10 @@
         <v>135</v>
       </c>
       <c r="E54" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
@@ -1543,7 +1540,7 @@
         <v>135</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F55" s="1"/>
     </row>
@@ -1559,7 +1556,7 @@
         <v>135</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F56" s="1"/>
     </row>
@@ -1575,7 +1572,7 @@
         <v>135</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F57" s="1"/>
     </row>

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\喬宇\Desktop\github\roll-check-app-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6775930C-DF32-1740-AE01-D5F2BF1A0538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98A560EC-2384-9F4A-9AC3-E7D3E96733F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="150">
   <si>
     <t>Item_Name</t>
   </si>
@@ -465,9 +465,6 @@
     <t>1SET=4PC</t>
   </si>
   <si>
-    <t>A,4PC=1PC</t>
-  </si>
-  <si>
     <t>4PC=1PC</t>
   </si>
   <si>
@@ -475,6 +472,9 @@
   </si>
   <si>
     <t>銲補</t>
+  </si>
+  <si>
+    <t>AB,4PC=1PC</t>
   </si>
 </sst>
 </file>
@@ -880,10 +880,10 @@
   </sheetPr>
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="G32" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="B31" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45:E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -951,7 +951,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -1029,7 +1029,7 @@
         <v>133</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -1354,10 +1354,10 @@
         <v>135</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1372,10 +1372,10 @@
         <v>135</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
@@ -1387,10 +1387,10 @@
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F46" s="1"/>
     </row>
@@ -1406,7 +1406,7 @@
         <v>135</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F47" s="1"/>
     </row>
@@ -1422,7 +1422,7 @@
         <v>135</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F48" s="1"/>
     </row>
@@ -1438,7 +1438,7 @@
         <v>135</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F49" s="1"/>
     </row>
@@ -1454,7 +1454,7 @@
         <v>135</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F50" s="1"/>
     </row>
@@ -1470,7 +1470,7 @@
         <v>135</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F51" s="1"/>
     </row>
@@ -1486,10 +1486,10 @@
         <v>135</v>
       </c>
       <c r="E52" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
@@ -1504,10 +1504,10 @@
         <v>135</v>
       </c>
       <c r="E53" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
@@ -1522,10 +1522,10 @@
         <v>135</v>
       </c>
       <c r="E54" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
@@ -1540,7 +1540,7 @@
         <v>135</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F55" s="1"/>
     </row>
@@ -1556,7 +1556,7 @@
         <v>135</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F56" s="1"/>
     </row>
@@ -1572,7 +1572,7 @@
         <v>135</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F57" s="1"/>
     </row>

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\喬宇\Desktop\github\roll-check-app-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98A560EC-2384-9F4A-9AC3-E7D3E96733F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{486EF192-1A25-7745-87F5-85A44CA75E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="142">
   <si>
     <t>Item_Name</t>
   </si>
@@ -475,6 +475,13 @@
   </si>
   <si>
     <t>AB,4PC=1PC</t>
+  </si>
+  <si>
+    <t>Process_Rule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>軸頸銲補</t>
   </si>
 </sst>
 </file>
@@ -878,12 +885,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="B31" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="E2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E45" sqref="E45:E57"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -891,11 +898,11 @@
     <col min="1" max="1" width="64.9296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.6015625" customWidth="1"/>
     <col min="3" max="3" width="13.4375" customWidth="1"/>
-    <col min="4" max="6" width="20.75390625" customWidth="1"/>
-    <col min="7" max="7" width="70.65234375" style="1" customWidth="1"/>
+    <col min="4" max="7" width="20.75390625" customWidth="1"/>
+    <col min="8" max="8" width="70.65234375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -914,16 +921,19 @@
       <c r="F1" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>127</v>
       </c>
@@ -934,55 +944,59 @@
         <v>104</v>
       </c>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>128</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -990,7 +1004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -998,7 +1012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1006,7 +1020,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1014,7 +1028,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
@@ -1031,8 +1045,9 @@
       <c r="F15" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1040,7 +1055,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1048,7 +1063,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1056,7 +1071,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1064,7 +1079,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1072,7 +1087,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>107</v>
       </c>
@@ -1087,7 +1102,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>109</v>
       </c>
@@ -1102,7 +1117,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>111</v>
       </c>
@@ -1117,7 +1132,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>113</v>
       </c>
@@ -1132,7 +1147,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>114</v>
       </c>
@@ -1143,7 +1158,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>115</v>
       </c>
@@ -1154,7 +1169,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>94</v>
       </c>
@@ -1168,8 +1183,9 @@
       <c r="F27" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>95</v>
       </c>
@@ -1182,8 +1198,9 @@
         <v>134</v>
       </c>
       <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>120</v>
       </c>
@@ -1200,8 +1217,9 @@
       <c r="F29" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>96</v>
       </c>
@@ -1216,9 +1234,10 @@
         <v>134</v>
       </c>
       <c r="F30" s="1"/>
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G30" s="1"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>98</v>
       </c>
@@ -1233,9 +1252,10 @@
         <v>134</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G31" s="1"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -1247,7 +1267,7 @@
       </c>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>27</v>
       </c>
@@ -1258,8 +1278,9 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -1267,7 +1288,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>31</v>
       </c>
@@ -1280,8 +1301,9 @@
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -1289,12 +1311,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1302,7 +1324,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -1310,7 +1332,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -1318,7 +1340,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -1326,7 +1348,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -1334,7 +1356,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1342,7 +1364,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>82</v>
       </c>
@@ -1359,8 +1381,9 @@
       <c r="F44" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>83</v>
       </c>
@@ -1377,8 +1400,9 @@
       <c r="F45" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
         <v>81</v>
       </c>
@@ -1393,8 +1417,9 @@
         <v>139</v>
       </c>
       <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
         <v>84</v>
       </c>
@@ -1409,8 +1434,9 @@
         <v>139</v>
       </c>
       <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
         <v>80</v>
       </c>
@@ -1425,8 +1451,9 @@
         <v>139</v>
       </c>
       <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
         <v>85</v>
       </c>
@@ -1441,8 +1468,9 @@
         <v>139</v>
       </c>
       <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
         <v>86</v>
       </c>
@@ -1457,8 +1485,9 @@
         <v>139</v>
       </c>
       <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
         <v>87</v>
       </c>
@@ -1473,8 +1502,9 @@
         <v>139</v>
       </c>
       <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
         <v>88</v>
       </c>
@@ -1491,8 +1521,9 @@
       <c r="F52" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
         <v>89</v>
       </c>
@@ -1509,8 +1540,9 @@
       <c r="F53" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
         <v>90</v>
       </c>
@@ -1527,8 +1559,9 @@
       <c r="F54" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
         <v>91</v>
       </c>
@@ -1543,8 +1576,9 @@
         <v>139</v>
       </c>
       <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
         <v>92</v>
       </c>
@@ -1559,8 +1593,9 @@
         <v>139</v>
       </c>
       <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
         <v>93</v>
       </c>
@@ -1575,8 +1610,9 @@
         <v>139</v>
       </c>
       <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -1584,7 +1620,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -1592,12 +1628,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="6" t="s">
         <v>124</v>
       </c>
@@ -1611,7 +1647,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -1619,7 +1655,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -1627,7 +1663,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>66</v>
       </c>

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\喬宇\Desktop\github\roll-check-app-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{486EF192-1A25-7745-87F5-85A44CA75E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{565CDB1E-3519-AA45-894D-B61272C08D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$H$67</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="148">
   <si>
     <t>Item_Name</t>
   </si>
@@ -474,14 +477,20 @@
     <t>銲補</t>
   </si>
   <si>
-    <t>AB,4PC=1PC</t>
-  </si>
-  <si>
     <t>Process_Rule</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>軸頸銲補</t>
+  </si>
+  <si>
+    <t>A,4PC=1PC</t>
+  </si>
+  <si>
+    <t>強制抄寫成：W3 SCC #6 ROLL 軸頸銲補一端</t>
+  </si>
+  <si>
+    <t>1=4</t>
   </si>
 </sst>
 </file>
@@ -887,10 +896,10 @@
   </sheetPr>
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="E2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -922,7 +931,7 @@
         <v>103</v>
       </c>
       <c r="G1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>100</v>
@@ -959,140 +968,144 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
-        <v>15</v>
+      <c r="A15" t="s">
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G15" s="1"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>24</v>
+      <c r="A20" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>108</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="1" t="s">
@@ -1104,10 +1117,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="1" t="s">
@@ -1119,10 +1132,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="1" t="s">
@@ -1134,25 +1147,21 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>134</v>
-      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B25" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="1"/>
@@ -1160,19 +1169,25 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B26" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>94</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" s="3"/>
       <c r="D27" s="1" t="s">
         <v>105</v>
@@ -1180,51 +1195,52 @@
       <c r="E27" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>134</v>
-      </c>
+      <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="D28" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F28" s="1"/>
+        <v>133</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="3" t="s">
-        <v>132</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="3"/>
       <c r="D29" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>129</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="F29" s="1"/>
       <c r="G29" s="1"/>
+      <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="1" t="s">
@@ -1238,133 +1254,129 @@
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="1" t="s">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="8"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" t="s">
-        <v>132</v>
-      </c>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
-        <v>31</v>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="B38" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>138</v>
+      </c>
+      <c r="G43" t="s">
+        <v>140</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>82</v>
       </c>
@@ -1376,14 +1388,12 @@
         <v>135</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>136</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>83</v>
       </c>
@@ -1395,14 +1405,12 @@
         <v>135</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>136</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
         <v>81</v>
       </c>
@@ -1411,15 +1419,15 @@
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
         <v>84</v>
       </c>
@@ -1431,12 +1439,12 @@
         <v>135</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
         <v>80</v>
       </c>
@@ -1448,7 +1456,7 @@
         <v>135</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -1465,7 +1473,7 @@
         <v>135</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -1482,7 +1490,7 @@
         <v>135</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -1499,7 +1507,7 @@
         <v>135</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -1516,7 +1524,7 @@
         <v>135</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>136</v>
@@ -1535,7 +1543,7 @@
         <v>135</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>136</v>
@@ -1554,7 +1562,7 @@
         <v>135</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>136</v>
@@ -1573,7 +1581,7 @@
         <v>135</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -1590,7 +1598,7 @@
         <v>135</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -1607,7 +1615,7 @@
         <v>135</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -1640,7 +1648,7 @@
       <c r="B61" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" t="s">
         <v>129</v>
       </c>
       <c r="E61" t="s">

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\喬宇\Desktop\github\roll-check-app-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{565CDB1E-3519-AA45-894D-B61272C08D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79E0C7D0-2ADE-9547-B352-183914DD95E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="149">
   <si>
     <t>Item_Name</t>
   </si>
@@ -484,13 +484,13 @@
     <t>軸頸銲補</t>
   </si>
   <si>
-    <t>A,4PC=1PC</t>
-  </si>
-  <si>
     <t>強制抄寫成：W3 SCC #6 ROLL 軸頸銲補一端</t>
   </si>
   <si>
     <t>1=4</t>
+  </si>
+  <si>
+    <t>A,1SET=4PC</t>
   </si>
 </sst>
 </file>
@@ -896,10 +896,10 @@
   </sheetPr>
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="D38" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1373,7 +1373,7 @@
         <v>140</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1388,7 +1388,7 @@
         <v>135</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -1405,7 +1405,7 @@
         <v>135</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -1419,10 +1419,10 @@
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -1439,7 +1439,7 @@
         <v>135</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -1456,7 +1456,7 @@
         <v>135</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -1473,7 +1473,7 @@
         <v>135</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -1490,7 +1490,7 @@
         <v>135</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -1507,7 +1507,7 @@
         <v>135</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -1524,7 +1524,7 @@
         <v>135</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>136</v>
@@ -1543,7 +1543,7 @@
         <v>135</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>136</v>
@@ -1562,7 +1562,7 @@
         <v>135</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>136</v>
@@ -1581,7 +1581,7 @@
         <v>135</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -1598,7 +1598,7 @@
         <v>135</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -1615,7 +1615,7 @@
         <v>135</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\喬宇\Desktop\github\roll-check-app-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79E0C7D0-2ADE-9547-B352-183914DD95E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4B36F86-D89E-9649-904A-5A768B2D47C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="151">
   <si>
     <t>Item_Name</t>
   </si>
@@ -487,10 +487,10 @@
     <t>強制抄寫成：W3 SCC #6 ROLL 軸頸銲補一端</t>
   </si>
   <si>
-    <t>1=4</t>
-  </si>
-  <si>
-    <t>A,1SET=4PC</t>
+    <t>A,4SET=1PC</t>
+  </si>
+  <si>
+    <t>1PC=4PC</t>
   </si>
 </sst>
 </file>
@@ -897,9 +897,9 @@
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="D38" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="D3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
+      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1388,7 +1388,7 @@
         <v>135</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -1405,7 +1405,7 @@
         <v>135</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -1419,10 +1419,10 @@
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -1439,7 +1439,7 @@
         <v>135</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -1456,7 +1456,7 @@
         <v>135</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -1473,7 +1473,7 @@
         <v>135</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -1490,7 +1490,7 @@
         <v>135</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -1507,7 +1507,7 @@
         <v>135</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -1524,7 +1524,7 @@
         <v>135</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>136</v>
@@ -1543,7 +1543,7 @@
         <v>135</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>136</v>
@@ -1562,7 +1562,7 @@
         <v>135</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>136</v>
@@ -1581,7 +1581,7 @@
         <v>135</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -1598,7 +1598,7 @@
         <v>135</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -1615,7 +1615,7 @@
         <v>135</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\喬宇\Desktop\github\roll-check-app-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4B36F86-D89E-9649-904A-5A768B2D47C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{697270AA-05D4-6744-89E0-CB6FCD6D9695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="150">
   <si>
     <t>Item_Name</t>
   </si>
@@ -487,10 +487,10 @@
     <t>強制抄寫成：W3 SCC #6 ROLL 軸頸銲補一端</t>
   </si>
   <si>
-    <t>A,4SET=1PC</t>
-  </si>
-  <si>
     <t>1PC=4PC</t>
+  </si>
+  <si>
+    <t>A,4PC=1SET</t>
   </si>
 </sst>
 </file>
@@ -897,9 +897,9 @@
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="D3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="D29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
+      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1388,7 +1388,7 @@
         <v>135</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -1405,7 +1405,7 @@
         <v>135</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -1419,10 +1419,10 @@
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -1439,7 +1439,7 @@
         <v>135</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -1456,7 +1456,7 @@
         <v>135</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -1473,7 +1473,7 @@
         <v>135</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -1490,7 +1490,7 @@
         <v>135</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -1507,7 +1507,7 @@
         <v>135</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -1524,7 +1524,7 @@
         <v>135</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>136</v>
@@ -1543,7 +1543,7 @@
         <v>135</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>136</v>
@@ -1562,7 +1562,7 @@
         <v>135</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>136</v>
@@ -1581,7 +1581,7 @@
         <v>135</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -1598,7 +1598,7 @@
         <v>135</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -1615,7 +1615,7 @@
         <v>135</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\喬宇\Desktop\github\roll-check-app-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{697270AA-05D4-6744-89E0-CB6FCD6D9695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C1EC870-FB0E-194C-84EA-618C518DE506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$H$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$H$68</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,14 +39,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="146">
   <si>
     <t>Item_Name</t>
   </si>
   <si>
-    <t>0800A 動平衡測試一、Ø920允許差值1780.77g 二、Ø520允許差值1818.41g | 0800A 動平衡測試允許差值328.09g以下 | 0800A 動平衡測試允許差值572.94g</t>
-  </si>
-  <si>
     <t>W3 SCC #6 ROLL 軸頸再生一端</t>
   </si>
   <si>
@@ -357,97 +354,90 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1SET=3PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1SET=2PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W3 #5 改造 250 驅動輥輪 新品組裝</t>
+  </si>
+  <si>
+    <t>0631A 測試平台測試輥輪滾動真圓度±0.1mm</t>
+  </si>
+  <si>
+    <t>W3 #5 改造 250 驅動輥輪 舊品拆裝</t>
+  </si>
+  <si>
+    <t>0632A 測試平台測試輥輪滾動真圓度±0.1mm</t>
+  </si>
+  <si>
+    <t>W3 #5 改造 300 驅動輥輪 新品組裝</t>
+  </si>
+  <si>
+    <t>0633A 測試平台測試輥輪滾動真圓度±0.1mm</t>
+  </si>
+  <si>
+    <t>W3 #5 改造 300 驅動輥輪 舊品拆裝</t>
+  </si>
+  <si>
+    <t>W3 #5 機  Ø300 Roller 軸頸未再生車修一端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W3 #5 機  Ø300 Roller 軸頸再生車修一端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0634A 測試平台測試輥輪滾動真圓度±0.1mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0656A 車修至直徑147mm且無裂痕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0957A 鍵槽寬18mm -0.018,-0.061 | 0957A 鍵槽寬22mm -0.022, -0.074 | 0957A 鍵槽寬22mm -0.022,-0.074 | 0957A 鍵槽寬28mm -0.022,-0.074 | 0957A 鍵槽寬32mm +0,-0.062</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0657A 車修至直徑 150mm -0.014, -0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W3 #5 改造 250及300驅動輥輪軸心 本體未再生車修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0669A 一、車修內徑45mm +0,+0.039二、車修內徑50mm +0,+0.039</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺寸跟規範一樣即合格。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0983A 一、車修內孔徑161mm+0,+0.03 二、車修內孔徑159mm+0,+0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W3 SCC ROLL旋轉接頭拆裝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>須符合規格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全廠 ROLL(全部)KEYWAY CUT KEYWAY CUTTING</t>
+  </si>
+  <si>
+    <t>WX ROLL熱處理</t>
+  </si>
+  <si>
     <t>豁免</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1SET=3PC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1SET=2PC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W3 #5 改造 250 驅動輥輪 新品組裝</t>
-  </si>
-  <si>
-    <t>0631A 測試平台測試輥輪滾動真圓度±0.1mm</t>
-  </si>
-  <si>
-    <t>W3 #5 改造 250 驅動輥輪 舊品拆裝</t>
-  </si>
-  <si>
-    <t>0632A 測試平台測試輥輪滾動真圓度±0.1mm</t>
-  </si>
-  <si>
-    <t>W3 #5 改造 300 驅動輥輪 新品組裝</t>
-  </si>
-  <si>
-    <t>0633A 測試平台測試輥輪滾動真圓度±0.1mm</t>
-  </si>
-  <si>
-    <t>W3 #5 改造 300 驅動輥輪 舊品拆裝</t>
-  </si>
-  <si>
-    <t>W3 #5 機  Ø300 Roller 軸頸未再生車修一端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W3 #5 機  Ø300 Roller 軸頸再生車修一端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0634A 測試平台測試輥輪滾動真圓度±0.1mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0656A 車修至直徑147mm且無裂痕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0957A 鍵槽寬18mm -0.018,-0.061 | 0957A 鍵槽寬22mm -0.022, -0.074 | 0957A 鍵槽寬22mm -0.022,-0.074 | 0957A 鍵槽寬28mm -0.022,-0.074 | 0957A 鍵槽寬32mm +0,-0.062</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0657A 車修至直徑 150mm -0.014, -0.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W3 #5 改造 250及300驅動輥輪軸心 本體未再生車修</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0669A 一、車修內徑45mm +0,+0.039二、車修內徑50mm +0,+0.039</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尺寸跟規範一樣即合格。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0983A 一、車修內孔徑161mm+0,+0.03 二、車修內孔徑159mm+0,+0.03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W3 SCC ROLL旋轉接頭拆裝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>須符合規格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全廠 ROLL(全部)KEYWAY CUT KEYWAY CUTTING</t>
-  </si>
-  <si>
-    <t>WX ROLL熱處理</t>
-  </si>
-  <si>
-    <t>全廠輥輪動平衡 輥輪動平衡</t>
-  </si>
-  <si>
-    <t>豁免</t>
   </si>
   <si>
     <t>0602A 車修至直徑135mm~129mm且無裂痕 | 0602A 車修至直徑145mm~130mm且無裂痕</t>
@@ -491,6 +481,12 @@
   </si>
   <si>
     <t>A,4PC=1SET</t>
+  </si>
+  <si>
+    <t>輥輪表面研磨</t>
+  </si>
+  <si>
+    <t>全廠輥輪動平衡</t>
   </si>
 </sst>
 </file>
@@ -894,12 +890,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="D29" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -916,252 +912,259 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" t="s">
         <v>101</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>102</v>
       </c>
-      <c r="F1" t="s">
-        <v>103</v>
-      </c>
       <c r="G1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>104</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>125</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>142</v>
+      </c>
+      <c r="C5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" t="s">
+        <v>130</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
+      <c r="F15" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
         <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" t="s">
         <v>114</v>
       </c>
-      <c r="B24" t="s">
-        <v>117</v>
-      </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" t="s">
         <v>115</v>
-      </c>
-      <c r="B25" t="s">
-        <v>119</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="1"/>
@@ -1169,538 +1172,549 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>94</v>
+        <v>113</v>
+      </c>
+      <c r="B26" t="s">
+        <v>117</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>93</v>
+      </c>
       <c r="C27" s="3"/>
       <c r="D27" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F27" s="1"/>
+        <v>131</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="3" t="s">
-        <v>132</v>
-      </c>
+      <c r="C28" s="3"/>
       <c r="D28" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>129</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="3"/>
+        <v>118</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="D29" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F29" s="1"/>
+        <v>130</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="G29" s="1"/>
-      <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
+      <c r="A31" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B31" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31" t="s">
-        <v>132</v>
-      </c>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
+      <c r="B33" t="s">
         <v>27</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C33" s="3"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
+      <c r="B34" t="s">
         <v>29</v>
       </c>
-      <c r="B33" t="s">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
+      <c r="B35" t="s">
         <v>31</v>
       </c>
-      <c r="B34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>34</v>
-      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>118</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>135</v>
+      </c>
+      <c r="G44" t="s">
+        <v>137</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G43" t="s">
+    </row>
+    <row r="45" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B45" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B48" t="s">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>136</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F55" s="1"/>
+        <v>140</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
-        <v>56</v>
+      <c r="A58" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A62" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B61" t="s">
-        <v>61</v>
-      </c>
-      <c r="C61" t="s">
-        <v>129</v>
-      </c>
-      <c r="E61" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" t="s">
-        <v>63</v>
+      <c r="C62" t="s">
+        <v>126</v>
+      </c>
+      <c r="E62" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
         <v>72</v>
-      </c>
-      <c r="B67" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\喬宇\Desktop\github\roll-check-app-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C1EC870-FB0E-194C-84EA-618C518DE506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8F548C9-0D35-C648-A6E7-61F22E5058DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="145">
   <si>
     <t>Item_Name</t>
   </si>
@@ -487,6 +487,12 @@
   </si>
   <si>
     <t>全廠輥輪動平衡</t>
+  </si>
+  <si>
+    <t>W3 SCC #7 0230驅動ROLLER 舊品拆裝</t>
+  </si>
+  <si>
+    <t>1SET=2PC</t>
   </si>
 </sst>
 </file>
@@ -890,12 +896,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="C7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1685,7 +1691,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -1693,7 +1699,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -1701,7 +1707,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -1709,12 +1715,20 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>71</v>
       </c>
       <c r="B68" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>143</v>
+      </c>
+      <c r="D69" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\喬宇\Desktop\github\roll-check-app-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8F548C9-0D35-C648-A6E7-61F22E5058DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C59E98D-085D-2648-81C5-0DBDBC82BF6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="145">
   <si>
     <t>Item_Name</t>
   </si>
@@ -898,10 +898,10 @@
   </sheetPr>
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="C7" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="B23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E69" sqref="E69"/>
+      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1292,9 +1292,13 @@
       <c r="B33" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
@@ -1313,11 +1317,15 @@
       <c r="B35" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="D35" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11217"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\喬宇\Desktop\github\roll-check-app-v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v05993\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C59E98D-085D-2648-81C5-0DBDBC82BF6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60416C6A-48EB-42F6-9B17-7CA4F6FD1203}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -18,21 +18,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$H$68</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -477,9 +466,6 @@
     <t>強制抄寫成：W3 SCC #6 ROLL 軸頸銲補一端</t>
   </si>
   <si>
-    <t>1PC=4PC</t>
-  </si>
-  <si>
     <t>A,4PC=1SET</t>
   </si>
   <si>
@@ -493,6 +479,10 @@
   </si>
   <si>
     <t>1SET=2PC</t>
+  </si>
+  <si>
+    <t>4PC=1PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -899,21 +889,21 @@
   <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="B23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6015625" customWidth="1"/>
-    <col min="3" max="3" width="13.4375" customWidth="1"/>
-    <col min="4" max="7" width="20.75390625" customWidth="1"/>
-    <col min="8" max="8" width="70.65234375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="64.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="7" width="20.75" customWidth="1"/>
+    <col min="8" max="8" width="70.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -939,12 +929,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>125</v>
       </c>
@@ -958,9 +948,9 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
         <v>126</v>
@@ -972,9 +962,9 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C5" t="s">
         <v>129</v>
@@ -986,7 +976,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -994,27 +984,27 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1022,7 +1012,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1030,7 +1020,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1038,7 +1028,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1046,7 +1036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -1065,7 +1055,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1073,7 +1063,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1081,7 +1071,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1089,7 +1079,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1097,7 +1087,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1105,7 +1095,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>105</v>
       </c>
@@ -1120,7 +1110,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>107</v>
       </c>
@@ -1135,7 +1125,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>109</v>
       </c>
@@ -1150,7 +1140,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>111</v>
       </c>
@@ -1165,7 +1155,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>112</v>
       </c>
@@ -1176,7 +1166,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>113</v>
       </c>
@@ -1187,7 +1177,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>93</v>
       </c>
@@ -1203,7 +1193,7 @@
       </c>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>94</v>
       </c>
@@ -1218,7 +1208,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>118</v>
       </c>
@@ -1237,7 +1227,7 @@
       </c>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>95</v>
       </c>
@@ -1255,7 +1245,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>97</v>
       </c>
@@ -1273,7 +1263,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -1285,7 +1275,7 @@
       </c>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>26</v>
       </c>
@@ -1302,7 +1292,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -1310,7 +1300,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>30</v>
       </c>
@@ -1329,7 +1319,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -1337,12 +1327,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -1350,7 +1340,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>75</v>
       </c>
@@ -1358,7 +1348,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>76</v>
       </c>
@@ -1366,7 +1356,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -1374,7 +1364,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>78</v>
       </c>
@@ -1382,7 +1372,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -1390,7 +1380,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -1404,7 +1394,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>81</v>
       </c>
@@ -1416,12 +1406,12 @@
         <v>132</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>82</v>
       </c>
@@ -1433,12 +1423,12 @@
         <v>132</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>80</v>
       </c>
@@ -1447,15 +1437,15 @@
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>83</v>
       </c>
@@ -1467,12 +1457,12 @@
         <v>132</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>79</v>
       </c>
@@ -1484,12 +1474,12 @@
         <v>132</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>84</v>
       </c>
@@ -1501,12 +1491,12 @@
         <v>132</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>85</v>
       </c>
@@ -1518,12 +1508,12 @@
         <v>132</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>86</v>
       </c>
@@ -1535,12 +1525,12 @@
         <v>132</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>87</v>
       </c>
@@ -1552,14 +1542,14 @@
         <v>132</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>133</v>
       </c>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>88</v>
       </c>
@@ -1571,14 +1561,14 @@
         <v>132</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>133</v>
       </c>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>89</v>
       </c>
@@ -1590,14 +1580,14 @@
         <v>132</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>133</v>
       </c>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>90</v>
       </c>
@@ -1609,12 +1599,12 @@
         <v>132</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>91</v>
       </c>
@@ -1626,12 +1616,12 @@
         <v>132</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>92</v>
       </c>
@@ -1643,12 +1633,12 @@
         <v>132</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -1656,7 +1646,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -1664,12 +1654,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>122</v>
       </c>
@@ -1683,7 +1673,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -1691,7 +1681,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -1699,7 +1689,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -1707,7 +1697,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -1715,7 +1705,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -1723,7 +1713,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -1731,12 +1721,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>142</v>
+      </c>
+      <c r="D69" t="s">
         <v>143</v>
-      </c>
-      <c r="D69" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11217"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v05993\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\喬宇\Desktop\github\roll-check-app-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60416C6A-48EB-42F6-9B17-7CA4F6FD1203}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A7711F9-5BBB-D04A-97C0-A20FA8E07151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,28 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$H$68</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="143">
   <si>
     <t>Item_Name</t>
   </si>
@@ -343,14 +354,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1SET=3PC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1SET=2PC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>W3 #5 改造 250 驅動輥輪 新品組裝</t>
   </si>
   <si>
@@ -441,18 +444,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>3PC=1PC</t>
-  </si>
-  <si>
-    <t>1SET=4PC</t>
-  </si>
-  <si>
-    <t>4PC=1PC</t>
-  </si>
-  <si>
-    <t>2PC=1PC</t>
-  </si>
-  <si>
     <t>銲補</t>
   </si>
   <si>
@@ -466,9 +457,6 @@
     <t>強制抄寫成：W3 SCC #6 ROLL 軸頸銲補一端</t>
   </si>
   <si>
-    <t>A,4PC=1SET</t>
-  </si>
-  <si>
     <t>輥輪表面研磨</t>
   </si>
   <si>
@@ -478,11 +466,13 @@
     <t>W3 SCC #7 0230驅動ROLLER 舊品拆裝</t>
   </si>
   <si>
-    <t>1SET=2PC</t>
-  </si>
-  <si>
-    <t>4PC=1PC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>1/3</t>
+  </si>
+  <si>
+    <t>1/2</t>
+  </si>
+  <si>
+    <t>1/4</t>
   </si>
 </sst>
 </file>
@@ -575,15 +565,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -603,6 +590,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -618,6 +616,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/featurePropertyBag/featurePropertyBag.xml><?xml version="1.0" encoding="utf-8"?>
+<FeaturePropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag">
+  <bag type="Checkbox"/>
+  <bag type="XFControls">
+    <bagId k="CellControl">0</bagId>
+  </bag>
+  <bag type="XFComplement">
+    <bagId k="XFControls">1</bagId>
+  </bag>
+  <bag type="XFComplements" extRef="XFComplementsMapperExtRef">
+    <a k="MappedFeaturePropertyBags">
+      <bagId>2</bagId>
+    </a>
+  </bag>
+</FeaturePropertyBags>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -886,32 +901,32 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="64.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.625" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="7" width="20.75" customWidth="1"/>
-    <col min="8" max="8" width="70.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="64.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5234375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.4375" customWidth="1"/>
+    <col min="4" max="7" width="20.75390625" customWidth="1"/>
+    <col min="8" max="8" width="70.65234375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D1" t="s">
         <v>100</v>
@@ -923,811 +938,787 @@
         <v>102</v>
       </c>
       <c r="G1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" t="s">
-        <v>126</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>74</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="48.75" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="48.75" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="1" t="s">
-        <v>104</v>
+      <c r="B15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>134</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="C22" s="2"/>
+      <c r="D22" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="C23" s="2"/>
+      <c r="D23" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B24" t="s">
-        <v>114</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B25" t="s">
-        <v>115</v>
-      </c>
-      <c r="C25" s="3"/>
+      <c r="B25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B26" t="s">
-        <v>117</v>
-      </c>
-      <c r="C26" s="3"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" s="9"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>103</v>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="D30" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E30" s="9"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="8"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="9"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="8"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>25</v>
       </c>
-      <c r="B32" t="s">
-        <v>119</v>
+      <c r="B32" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="C32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>126</v>
+      <c r="C33" t="s">
+        <v>124</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>28</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>103</v>
+      <c r="C35" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>32</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="36.75" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>35</v>
       </c>
-      <c r="B38" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>75</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>76</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>77</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>78</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>40</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G44" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H44" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="8" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B45" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="E45" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+    <row r="46" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="1" t="s">
-        <v>132</v>
+      <c r="C46" s="4"/>
+      <c r="D46" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+    <row r="47" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A47" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="1" t="s">
-        <v>144</v>
+      <c r="C47" s="4"/>
+      <c r="D47" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="1" t="s">
-        <v>132</v>
+      <c r="C48" s="4"/>
+      <c r="D48" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+    <row r="49" spans="1:7" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A49" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B49" t="s">
-        <v>121</v>
-      </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="1" t="s">
-        <v>132</v>
+      <c r="B49" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="1" t="s">
-        <v>132</v>
+      <c r="C50" s="4"/>
+      <c r="D50" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="1" t="s">
-        <v>132</v>
+      <c r="C51" s="4"/>
+      <c r="D51" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="1" t="s">
-        <v>132</v>
+      <c r="C52" s="4"/>
+      <c r="D52" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="1" t="s">
-        <v>132</v>
+      <c r="C53" s="4"/>
+      <c r="D53" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>133</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="1" t="s">
-        <v>132</v>
+      <c r="C54" s="4"/>
+      <c r="D54" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>133</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="1" t="s">
-        <v>132</v>
+      <c r="C55" s="4"/>
+      <c r="D55" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>133</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="1" t="s">
-        <v>132</v>
+      <c r="C56" s="4"/>
+      <c r="D56" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="1" t="s">
-        <v>132</v>
+      <c r="C57" s="4"/>
+      <c r="D57" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="1" t="s">
-        <v>132</v>
+      <c r="C58" s="4"/>
+      <c r="D58" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>55</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>57</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B62" t="s">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A62" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E62" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>61</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>65</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>67</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>69</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>71</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>142</v>
-      </c>
-      <c r="D69" t="s">
-        <v>143</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D70" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\喬宇\Desktop\github\roll-check-app-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A7711F9-5BBB-D04A-97C0-A20FA8E07151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14E2CF8B-11B1-B843-A4F6-D24B647C79DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="155">
   <si>
     <t>Item_Name</t>
   </si>
@@ -276,48 +276,6 @@
   </si>
   <si>
     <t>中龍#1&amp;#2 COILER PINCH TOP ROLL軸頸端面ψ520 KEY WAY銑槽</t>
-  </si>
-  <si>
-    <t>W3 #6 機 改造 驅動輥內孔車修(1SET=4PCS) 內孔車修(1SET)</t>
-  </si>
-  <si>
-    <t>W3X 串列式驅動輥軸心校正、研磨 校正、研磨(1PC)</t>
-  </si>
-  <si>
-    <t>W3 #6 機 改造 驅動輥(1SET=4PCS) 新品組裝(1SET)</t>
-  </si>
-  <si>
-    <t>W3 #6 機 改造 驅動輥(1SET=4PCS) 舊品拆裝(1SET)</t>
-  </si>
-  <si>
-    <t>W3 #6 機 改造 驅動輥內孔磨修(1SET=4PCS) 內孔手工研磨(1SET)</t>
-  </si>
-  <si>
-    <t>W3 #6 機 改造 240 驅動輥 (1SET=4PCS) 本體銲補(1SET)</t>
-  </si>
-  <si>
-    <t>W3 #6 機 改造 265 驅動輥 (1SET=4PCS) 本體銲補(1SET)</t>
-  </si>
-  <si>
-    <t>W3 #6 機 改造 295 驅動輥 (1SET=4PCS) 本體銲補(1SET)</t>
-  </si>
-  <si>
-    <t>W3 #6 機 改造 240 驅動輥 (1SET=4PCS) 本體未再生車修(1SET)</t>
-  </si>
-  <si>
-    <t>W3 #6 機 改造 265 驅動輥 (1SET=4PCS) 本體未再生車修(1SET)</t>
-  </si>
-  <si>
-    <t>W3 #6 機 改造 295 驅動輥 (1SET=4PCS) 本體未再生車修(1SET)</t>
-  </si>
-  <si>
-    <t>W3 #6 機 改造 240 驅動輥 (1SET=4PCS) 本體再生車修(1SET)</t>
-  </si>
-  <si>
-    <t>W3 #6 機 改造 265 驅動輥 (1SET=4PCS) 本體再生車修(1SET)</t>
-  </si>
-  <si>
-    <t>W3 #6 機 改造 295 驅動輥 (1SET=4PCS) 本體再生車修(1SET)</t>
   </si>
   <si>
     <t>W3 #5 改造 250 300 驅動輥輪 本體未再生車修</t>
@@ -473,6 +431,48 @@
   </si>
   <si>
     <t>1/4</t>
+  </si>
+  <si>
+    <t>W3 #6 機 改造 驅動輥(1SET=4PCS) 舊品拆裝</t>
+  </si>
+  <si>
+    <t>W3X 串列式驅動輥軸心校正、研磨</t>
+  </si>
+  <si>
+    <t>W3 #6 機 改造 驅動輥內孔車修(1SET=4PCS) 內孔車修</t>
+  </si>
+  <si>
+    <t>W3 #6 機 改造 驅動輥內孔磨修(1SET=4PCS) 內孔手工研磨</t>
+  </si>
+  <si>
+    <t>W3 #6 機 改造 240 驅動輥 (1SET=4PCS) 本體銲補</t>
+  </si>
+  <si>
+    <t>W3 #6 機 改造 265 驅動輥 (1SET=4PCS) 本體銲補</t>
+  </si>
+  <si>
+    <t>W3 #6 機 改造 295 驅動輥 (1SET=4PCS) 本體銲補</t>
+  </si>
+  <si>
+    <t>W3 #6 機 改造 240 驅動輥 (1SET=4PCS) 本體未再生車修</t>
+  </si>
+  <si>
+    <t>W3 #6 機 改造 265 驅動輥 (1SET=4PCS) 本體未再生車修</t>
+  </si>
+  <si>
+    <t>W3 #6 機 改造 240 驅動輥 (1SET=4PCS) 本體再生車修</t>
+  </si>
+  <si>
+    <t>W3 #6 機 改造 295 驅動輥 (1SET=4PCS) 本體未再生車修</t>
+  </si>
+  <si>
+    <t>W3 #6 機 改造 295 驅動輥 (1SET=4PCS) 本體再生車修</t>
+  </si>
+  <si>
+    <t>W3 #6 機 改造 265 驅動輥 (1SET=4PCS) 本體再生車修</t>
+  </si>
+  <si>
+    <t>W3 #6 機 改造 驅動輥(1SET=4PCS) 新品組裝</t>
   </si>
 </sst>
 </file>
@@ -906,7 +906,7 @@
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -926,69 +926,69 @@
         <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D1" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="E1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="F1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G1" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -996,7 +996,7 @@
         <v>74</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1056,14 +1056,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="8" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1110,62 +1110,62 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="8" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="8" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="8" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E23" s="9"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="8" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
@@ -1173,10 +1173,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
@@ -1184,11 +1184,11 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="8" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
@@ -1196,12 +1196,12 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="2"/>
       <c r="D28" s="8" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="1"/>
@@ -1209,32 +1209,32 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="1"/>
@@ -1243,14 +1243,14 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="8" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="1"/>
@@ -1262,10 +1262,10 @@
         <v>25</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C32" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="E32" s="1"/>
     </row>
@@ -1277,11 +1277,11 @@
         <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1302,13 +1302,13 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -1331,7 +1331,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
@@ -1379,249 +1379,249 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="G44" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="8" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="8" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="8" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="8" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="8" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="8" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="8" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="8" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="8" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="8" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="8" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="8" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="8" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="8" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -1649,16 +1649,16 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E62" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
@@ -1711,10 +1711,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\喬宇\Desktop\github\roll-check-app-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14E2CF8B-11B1-B843-A4F6-D24B647C79DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8206B7A0-B543-4849-9E68-7AB00ADE3BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="141">
   <si>
     <t>Item_Name</t>
   </si>
@@ -357,10 +357,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>W3 #5 改造 250及300驅動輥輪軸心 本體未再生車修</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0669A 一、車修內徑45mm +0,+0.039二、車修內徑50mm +0,+0.039</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -473,6 +469,9 @@
   </si>
   <si>
     <t>W3 #6 機 改造 驅動輥(1SET=4PCS) 新品組裝</t>
+  </si>
+  <si>
+    <t>驅動輥輪軸心 本體未再生車修</t>
   </si>
 </sst>
 </file>
@@ -904,9 +903,9 @@
   <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -926,7 +925,7 @@
         <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D1" t="s">
         <v>86</v>
@@ -938,7 +937,7 @@
         <v>88</v>
       </c>
       <c r="G1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>85</v>
@@ -946,49 +945,49 @@
     </row>
     <row r="2" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" t="s">
         <v>109</v>
-      </c>
-      <c r="C3" t="s">
-        <v>110</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -996,7 +995,7 @@
         <v>74</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1019,7 +1018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="48.75" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="72.75" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1043,7 +1042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="48.75" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="84.75" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1051,19 +1050,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="36.75" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1076,7 +1075,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1084,7 +1083,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1092,7 +1091,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" ht="36.75" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1100,7 +1099,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1108,7 +1107,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>89</v>
       </c>
@@ -1117,11 +1116,11 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>91</v>
       </c>
@@ -1130,11 +1129,11 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>93</v>
       </c>
@@ -1143,11 +1142,11 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>95</v>
       </c>
@@ -1156,7 +1155,7 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E24" s="9"/>
     </row>
@@ -1188,7 +1187,7 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
@@ -1201,7 +1200,7 @@
       <c r="B28" s="7"/>
       <c r="C28" s="2"/>
       <c r="D28" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="1"/>
@@ -1209,20 +1208,20 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G29" s="1"/>
     </row>
@@ -1234,7 +1233,7 @@
         <v>82</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="1"/>
@@ -1250,7 +1249,7 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="1"/>
@@ -1262,10 +1261,10 @@
         <v>25</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E32" s="1"/>
     </row>
@@ -1277,16 +1276,16 @@
         <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -1302,13 +1301,13 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -1326,7 +1325,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="36.75" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" ht="60.75" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -1379,249 +1378,249 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G44" t="s">
+        <v>116</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" ht="36.75" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -1649,19 +1648,19 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E62" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -1677,7 +1676,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -1685,7 +1684,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -1701,7 +1700,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -1711,10 +1710,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\喬宇\Desktop\github\roll-check-app-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8206B7A0-B543-4849-9E68-7AB00ADE3BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D49A17C6-F944-A64F-831E-45E3A1255313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="140">
   <si>
     <t>Item_Name</t>
   </si>
@@ -414,9 +414,6 @@
     <t>輥輪表面研磨</t>
   </si>
   <si>
-    <t>全廠輥輪動平衡</t>
-  </si>
-  <si>
     <t>W3 SCC #7 0230驅動ROLLER 舊品拆裝</t>
   </si>
   <si>
@@ -472,6 +469,9 @@
   </si>
   <si>
     <t>驅動輥輪軸心 本體未再生車修</t>
+  </si>
+  <si>
+    <t>輥輪動平衡</t>
   </si>
 </sst>
 </file>
@@ -903,9 +903,9 @@
   <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -978,7 +978,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="C5" t="s">
         <v>112</v>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>113</v>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E21" s="9"/>
     </row>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E22" s="9"/>
     </row>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E23" s="9"/>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E24" s="9"/>
     </row>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
@@ -1200,7 +1200,7 @@
       <c r="B28" s="7"/>
       <c r="C28" s="2"/>
       <c r="D28" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="1"/>
@@ -1208,14 +1208,14 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" t="s">
         <v>112</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>113</v>
@@ -1233,7 +1233,7 @@
         <v>82</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="1"/>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="1"/>
@@ -1304,7 +1304,7 @@
         <v>109</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>113</v>
@@ -1389,14 +1389,14 @@
     </row>
     <row r="45" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>113</v>
@@ -1406,14 +1406,14 @@
     </row>
     <row r="46" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>113</v>
@@ -1423,14 +1423,14 @@
     </row>
     <row r="47" spans="1:8" ht="36.75" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>113</v>
@@ -1440,14 +1440,14 @@
     </row>
     <row r="48" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>113</v>
@@ -1457,14 +1457,14 @@
     </row>
     <row r="49" spans="1:7" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>113</v>
@@ -1474,14 +1474,14 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>113</v>
@@ -1491,14 +1491,14 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>113</v>
@@ -1508,14 +1508,14 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>113</v>
@@ -1525,14 +1525,14 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>113</v>
@@ -1542,14 +1542,14 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>113</v>
@@ -1559,14 +1559,14 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>113</v>
@@ -1576,14 +1576,14 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>113</v>
@@ -1593,14 +1593,14 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>113</v>
@@ -1610,14 +1610,14 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>113</v>
@@ -1710,10 +1710,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\喬宇\Desktop\github\roll-check-app-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D49A17C6-F944-A64F-831E-45E3A1255313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF8AFD45-FE10-0647-A785-3B83954E0000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="141">
   <si>
     <t>Item_Name</t>
   </si>
@@ -471,7 +471,7 @@
     <t>驅動輥輪軸心 本體未再生車修</t>
   </si>
   <si>
-    <t>輥輪動平衡</t>
+    <t>全廠輥輪動平衡 輥輪動平衡</t>
   </si>
 </sst>
 </file>

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11217"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10102"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\喬宇\Desktop\github\roll-check-app-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF8AFD45-FE10-0647-A785-3B83954E0000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96372AC9-07B8-C14C-8A91-3126D327A714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="140">
   <si>
     <t>Item_Name</t>
   </si>
@@ -471,7 +471,7 @@
     <t>驅動輥輪軸心 本體未再生車修</t>
   </si>
   <si>
-    <t>全廠輥輪動平衡 輥輪動平衡</t>
+    <t>輥輪動平衡</t>
   </si>
 </sst>
 </file>

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\喬宇\Desktop\github\roll-check-app-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96372AC9-07B8-C14C-8A91-3126D327A714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09CABF1A-9DC8-F943-BA85-EAF1F9910809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="140">
   <si>
     <t>Item_Name</t>
   </si>
@@ -472,6 +472,9 @@
   </si>
   <si>
     <t>輥輪動平衡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Include </t>
   </si>
 </sst>
 </file>
@@ -902,10 +905,10 @@
   </sheetPr>
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="C6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1064,7 +1067,9 @@
       <c r="E15" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\喬宇\Desktop\github\roll-check-app-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09CABF1A-9DC8-F943-BA85-EAF1F9910809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA5DB4DD-26A3-E746-A52D-48691341E270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$H$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$H$69</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="142">
   <si>
     <t>Item_Name</t>
   </si>
@@ -474,7 +474,10 @@
     <t>輥輪動平衡</t>
   </si>
   <si>
-    <t xml:space="preserve">Include </t>
+    <t xml:space="preserve">Included </t>
+  </si>
+  <si>
+    <t>輕輪動平衡</t>
   </si>
 </sst>
 </file>
@@ -903,12 +906,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="C6" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -995,142 +998,143 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+    <row r="8" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="72.75" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+    <row r="12" spans="1:8" ht="72.75" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="84.75" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+    <row r="15" spans="1:8" ht="84.75" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="36.75" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
+    <row r="16" spans="1:8" ht="36.75" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="8" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="36.75" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+    <row r="20" spans="1:8" ht="36.75" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+    <row r="21" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="8" t="s">
@@ -1140,10 +1144,10 @@
     </row>
     <row r="23" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="8" t="s">
@@ -1153,10 +1157,10 @@
     </row>
     <row r="24" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="8" t="s">
@@ -1164,23 +1168,25 @@
       </c>
       <c r="E24" s="9"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="D25" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="9"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
@@ -1188,71 +1194,66 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>79</v>
+        <v>97</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" s="7"/>
+        <v>79</v>
+      </c>
       <c r="C28" s="2"/>
       <c r="D28" s="8" t="s">
         <v>120</v>
       </c>
       <c r="E28" s="9"/>
-      <c r="F28" s="1"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="B29" s="7"/>
-      <c r="C29" t="s">
-        <v>112</v>
-      </c>
+      <c r="C29" s="2"/>
       <c r="D29" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>82</v>
+        <v>137</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" t="s">
+        <v>112</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="G30" s="1"/>
-      <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>82</v>
+      </c>
       <c r="D31" s="8" t="s">
         <v>120</v>
       </c>
@@ -1261,162 +1262,161 @@
       <c r="G31" s="1"/>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>112</v>
       </c>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="2" t="s">
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>109</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
+      <c r="D34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A35" s="2" t="s">
+    <row r="36" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>109</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D36" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="E36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="60.75" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
+    <row r="39" spans="1:8" ht="60.75" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
         <v>1</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>114</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G45" t="s">
         <v>116</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="3" t="s">
+    <row r="46" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="4"/>
+      <c r="C46" s="3"/>
       <c r="D46" s="8" t="s">
         <v>122</v>
       </c>
@@ -1426,12 +1426,12 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:8" ht="36.75" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="8" t="s">
@@ -1443,12 +1443,12 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" ht="36.75" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="8" t="s">
@@ -1462,10 +1462,10 @@
     </row>
     <row r="49" spans="1:7" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="8" t="s">
@@ -1477,12 +1477,12 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="8" t="s">
@@ -1496,10 +1496,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="8" t="s">
@@ -1513,10 +1513,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="8" t="s">
@@ -1530,10 +1530,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="8" t="s">
@@ -1547,10 +1547,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="8" t="s">
@@ -1564,10 +1564,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="8" t="s">
@@ -1581,10 +1581,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="8" t="s">
@@ -1598,10 +1598,10 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="8" t="s">
@@ -1615,10 +1615,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="8" t="s">
@@ -1630,99 +1630,116 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
-        <v>55</v>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C59" s="4"/>
+      <c r="D59" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
         <v>57</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" s="5" t="s">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A63" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>109</v>
       </c>
-      <c r="E62" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>62</v>
+      <c r="E63" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
         <v>119</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D70" s="8" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D70" s="9"/>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D71" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\喬宇\Desktop\github\roll-check-app-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA5DB4DD-26A3-E746-A52D-48691341E270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F67DA9A-BA93-224D-9137-19CEDF09AD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$H$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$H$66</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="139">
   <si>
     <t>Item_Name</t>
   </si>
@@ -276,6 +276,48 @@
   </si>
   <si>
     <t>中龍#1&amp;#2 COILER PINCH TOP ROLL軸頸端面ψ520 KEY WAY銑槽</t>
+  </si>
+  <si>
+    <t>W3 #6 機 改造 驅動輥內孔車修(1SET=4PCS) 內孔車修(1SET)</t>
+  </si>
+  <si>
+    <t>W3X 串列式驅動輥軸心校正、研磨 校正、研磨(1PC)</t>
+  </si>
+  <si>
+    <t>W3 #6 機 改造 驅動輥(1SET=4PCS) 新品組裝(1SET)</t>
+  </si>
+  <si>
+    <t>W3 #6 機 改造 驅動輥(1SET=4PCS) 舊品拆裝(1SET)</t>
+  </si>
+  <si>
+    <t>W3 #6 機 改造 驅動輥內孔磨修(1SET=4PCS) 內孔手工研磨(1SET)</t>
+  </si>
+  <si>
+    <t>W3 #6 機 改造 240 驅動輥 (1SET=4PCS) 本體銲補(1SET)</t>
+  </si>
+  <si>
+    <t>W3 #6 機 改造 265 驅動輥 (1SET=4PCS) 本體銲補(1SET)</t>
+  </si>
+  <si>
+    <t>W3 #6 機 改造 295 驅動輥 (1SET=4PCS) 本體銲補(1SET)</t>
+  </si>
+  <si>
+    <t>W3 #6 機 改造 240 驅動輥 (1SET=4PCS) 本體未再生車修(1SET)</t>
+  </si>
+  <si>
+    <t>W3 #6 機 改造 265 驅動輥 (1SET=4PCS) 本體未再生車修(1SET)</t>
+  </si>
+  <si>
+    <t>W3 #6 機 改造 295 驅動輥 (1SET=4PCS) 本體未再生車修(1SET)</t>
+  </si>
+  <si>
+    <t>W3 #6 機 改造 240 驅動輥 (1SET=4PCS) 本體再生車修(1SET)</t>
+  </si>
+  <si>
+    <t>W3 #6 機 改造 265 驅動輥 (1SET=4PCS) 本體再生車修(1SET)</t>
+  </si>
+  <si>
+    <t>W3 #6 機 改造 295 驅動輥 (1SET=4PCS) 本體再生車修(1SET)</t>
   </si>
   <si>
     <t>W3 #5 改造 250 300 驅動輥輪 本體未再生車修</t>
@@ -333,27 +375,15 @@
     <t>W3 #5 改造 300 驅動輥輪 舊品拆裝</t>
   </si>
   <si>
-    <t>W3 #5 機  Ø300 Roller 軸頸未再生車修一端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W3 #5 機  Ø300 Roller 軸頸再生車修一端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0634A 測試平台測試輥輪滾動真圓度±0.1mm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0656A 車修至直徑147mm且無裂痕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0957A 鍵槽寬18mm -0.018,-0.061 | 0957A 鍵槽寬22mm -0.022, -0.074 | 0957A 鍵槽寬22mm -0.022,-0.074 | 0957A 鍵槽寬28mm -0.022,-0.074 | 0957A 鍵槽寬32mm +0,-0.062</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0657A 車修至直徑 150mm -0.014, -0.05</t>
+    <t>W3 #5 改造 250及300驅動輥輪軸心 本體未再生車修</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -414,6 +444,9 @@
     <t>輥輪表面研磨</t>
   </si>
   <si>
+    <t>全廠輥輪動平衡</t>
+  </si>
+  <si>
     <t>W3 SCC #7 0230驅動ROLLER 舊品拆裝</t>
   </si>
   <si>
@@ -424,60 +457,6 @@
   </si>
   <si>
     <t>1/4</t>
-  </si>
-  <si>
-    <t>W3 #6 機 改造 驅動輥(1SET=4PCS) 舊品拆裝</t>
-  </si>
-  <si>
-    <t>W3X 串列式驅動輥軸心校正、研磨</t>
-  </si>
-  <si>
-    <t>W3 #6 機 改造 驅動輥內孔車修(1SET=4PCS) 內孔車修</t>
-  </si>
-  <si>
-    <t>W3 #6 機 改造 驅動輥內孔磨修(1SET=4PCS) 內孔手工研磨</t>
-  </si>
-  <si>
-    <t>W3 #6 機 改造 240 驅動輥 (1SET=4PCS) 本體銲補</t>
-  </si>
-  <si>
-    <t>W3 #6 機 改造 265 驅動輥 (1SET=4PCS) 本體銲補</t>
-  </si>
-  <si>
-    <t>W3 #6 機 改造 295 驅動輥 (1SET=4PCS) 本體銲補</t>
-  </si>
-  <si>
-    <t>W3 #6 機 改造 240 驅動輥 (1SET=4PCS) 本體未再生車修</t>
-  </si>
-  <si>
-    <t>W3 #6 機 改造 265 驅動輥 (1SET=4PCS) 本體未再生車修</t>
-  </si>
-  <si>
-    <t>W3 #6 機 改造 240 驅動輥 (1SET=4PCS) 本體再生車修</t>
-  </si>
-  <si>
-    <t>W3 #6 機 改造 295 驅動輥 (1SET=4PCS) 本體未再生車修</t>
-  </si>
-  <si>
-    <t>W3 #6 機 改造 295 驅動輥 (1SET=4PCS) 本體再生車修</t>
-  </si>
-  <si>
-    <t>W3 #6 機 改造 265 驅動輥 (1SET=4PCS) 本體再生車修</t>
-  </si>
-  <si>
-    <t>W3 #6 機 改造 驅動輥(1SET=4PCS) 新品組裝</t>
-  </si>
-  <si>
-    <t>驅動輥輪軸心 本體未再生車修</t>
-  </si>
-  <si>
-    <t>輥輪動平衡</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Included </t>
-  </si>
-  <si>
-    <t>輕輪動平衡</t>
   </si>
 </sst>
 </file>
@@ -906,12 +885,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -931,815 +910,777 @@
         <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="E1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="F1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="72.75" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="72.75" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="84.75" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="84.75" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="36.75" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="36.75" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
-        <v>14</v>
+        <v>121</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G16" s="1"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="36.75" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="36.75" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>23</v>
+      <c r="A21" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="8" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="8" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="E23" s="9"/>
     </row>
     <row r="24" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="8" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="E24" s="9"/>
     </row>
-    <row r="25" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="8" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>99</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B26" s="7"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="D26" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>96</v>
+      </c>
       <c r="D28" s="8" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+      <c r="F28" s="1"/>
       <c r="G28" s="1"/>
+      <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="7"/>
+        <v>97</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="C29" s="2"/>
       <c r="D29" s="8" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B30" s="7"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="C30" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G30" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
         <v>120</v>
       </c>
-      <c r="E31" s="9"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="8" t="s">
+    </row>
+    <row r="32" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
         <v>120</v>
       </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C33" t="s">
-        <v>112</v>
-      </c>
-      <c r="E33" s="1"/>
+      <c r="D33" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="2" t="s">
-        <v>26</v>
+      <c r="A34" t="s">
+        <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" t="s">
-        <v>109</v>
-      </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A36" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="60.75" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+        <v>111</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="60.75" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>77</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>78</v>
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>125</v>
+      </c>
+      <c r="G42" t="s">
+        <v>127</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>114</v>
-      </c>
-      <c r="G45" t="s">
-        <v>116</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="3" t="s">
-        <v>136</v>
+        <v>43</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" ht="36.75" x14ac:dyDescent="0.15">
+      <c r="A45" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A46" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="C46" s="4"/>
       <c r="D46" s="8" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="8" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:8" ht="36.75" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="8" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="8" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="8" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="8" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="8" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="8" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="8" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="8" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="8" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A57" s="4" t="s">
-        <v>132</v>
+    <row r="57" spans="1:7" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A58" s="4" t="s">
-        <v>135</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
+        <v>58</v>
+      </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A59" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-    </row>
-    <row r="60" spans="1:7" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
-        <v>55</v>
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A60" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="C60" t="s">
+        <v>120</v>
+      </c>
+      <c r="E60" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="5" t="s">
-        <v>105</v>
+        <v>63</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>65</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C63" t="s">
-        <v>109</v>
-      </c>
-      <c r="E63" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="24.75" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" t="s">
-        <v>119</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D71" s="9"/>
+        <v>131</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D68" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\喬宇\Desktop\github\roll-check-app-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F67DA9A-BA93-224D-9137-19CEDF09AD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA5DB4DD-26A3-E746-A52D-48691341E270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$H$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$H$69</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="142">
   <si>
     <t>Item_Name</t>
   </si>
@@ -276,48 +276,6 @@
   </si>
   <si>
     <t>中龍#1&amp;#2 COILER PINCH TOP ROLL軸頸端面ψ520 KEY WAY銑槽</t>
-  </si>
-  <si>
-    <t>W3 #6 機 改造 驅動輥內孔車修(1SET=4PCS) 內孔車修(1SET)</t>
-  </si>
-  <si>
-    <t>W3X 串列式驅動輥軸心校正、研磨 校正、研磨(1PC)</t>
-  </si>
-  <si>
-    <t>W3 #6 機 改造 驅動輥(1SET=4PCS) 新品組裝(1SET)</t>
-  </si>
-  <si>
-    <t>W3 #6 機 改造 驅動輥(1SET=4PCS) 舊品拆裝(1SET)</t>
-  </si>
-  <si>
-    <t>W3 #6 機 改造 驅動輥內孔磨修(1SET=4PCS) 內孔手工研磨(1SET)</t>
-  </si>
-  <si>
-    <t>W3 #6 機 改造 240 驅動輥 (1SET=4PCS) 本體銲補(1SET)</t>
-  </si>
-  <si>
-    <t>W3 #6 機 改造 265 驅動輥 (1SET=4PCS) 本體銲補(1SET)</t>
-  </si>
-  <si>
-    <t>W3 #6 機 改造 295 驅動輥 (1SET=4PCS) 本體銲補(1SET)</t>
-  </si>
-  <si>
-    <t>W3 #6 機 改造 240 驅動輥 (1SET=4PCS) 本體未再生車修(1SET)</t>
-  </si>
-  <si>
-    <t>W3 #6 機 改造 265 驅動輥 (1SET=4PCS) 本體未再生車修(1SET)</t>
-  </si>
-  <si>
-    <t>W3 #6 機 改造 295 驅動輥 (1SET=4PCS) 本體未再生車修(1SET)</t>
-  </si>
-  <si>
-    <t>W3 #6 機 改造 240 驅動輥 (1SET=4PCS) 本體再生車修(1SET)</t>
-  </si>
-  <si>
-    <t>W3 #6 機 改造 265 驅動輥 (1SET=4PCS) 本體再生車修(1SET)</t>
-  </si>
-  <si>
-    <t>W3 #6 機 改造 295 驅動輥 (1SET=4PCS) 本體再生車修(1SET)</t>
   </si>
   <si>
     <t>W3 #5 改造 250 300 驅動輥輪 本體未再生車修</t>
@@ -375,15 +333,27 @@
     <t>W3 #5 改造 300 驅動輥輪 舊品拆裝</t>
   </si>
   <si>
+    <t>W3 #5 機  Ø300 Roller 軸頸未再生車修一端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W3 #5 機  Ø300 Roller 軸頸再生車修一端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0634A 測試平台測試輥輪滾動真圓度±0.1mm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0656A 車修至直徑147mm且無裂痕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0957A 鍵槽寬18mm -0.018,-0.061 | 0957A 鍵槽寬22mm -0.022, -0.074 | 0957A 鍵槽寬22mm -0.022,-0.074 | 0957A 鍵槽寬28mm -0.022,-0.074 | 0957A 鍵槽寬32mm +0,-0.062</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>W3 #5 改造 250及300驅動輥輪軸心 本體未再生車修</t>
+    <t>0657A 車修至直徑 150mm -0.014, -0.05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -444,9 +414,6 @@
     <t>輥輪表面研磨</t>
   </si>
   <si>
-    <t>全廠輥輪動平衡</t>
-  </si>
-  <si>
     <t>W3 SCC #7 0230驅動ROLLER 舊品拆裝</t>
   </si>
   <si>
@@ -457,6 +424,60 @@
   </si>
   <si>
     <t>1/4</t>
+  </si>
+  <si>
+    <t>W3 #6 機 改造 驅動輥(1SET=4PCS) 舊品拆裝</t>
+  </si>
+  <si>
+    <t>W3X 串列式驅動輥軸心校正、研磨</t>
+  </si>
+  <si>
+    <t>W3 #6 機 改造 驅動輥內孔車修(1SET=4PCS) 內孔車修</t>
+  </si>
+  <si>
+    <t>W3 #6 機 改造 驅動輥內孔磨修(1SET=4PCS) 內孔手工研磨</t>
+  </si>
+  <si>
+    <t>W3 #6 機 改造 240 驅動輥 (1SET=4PCS) 本體銲補</t>
+  </si>
+  <si>
+    <t>W3 #6 機 改造 265 驅動輥 (1SET=4PCS) 本體銲補</t>
+  </si>
+  <si>
+    <t>W3 #6 機 改造 295 驅動輥 (1SET=4PCS) 本體銲補</t>
+  </si>
+  <si>
+    <t>W3 #6 機 改造 240 驅動輥 (1SET=4PCS) 本體未再生車修</t>
+  </si>
+  <si>
+    <t>W3 #6 機 改造 265 驅動輥 (1SET=4PCS) 本體未再生車修</t>
+  </si>
+  <si>
+    <t>W3 #6 機 改造 240 驅動輥 (1SET=4PCS) 本體再生車修</t>
+  </si>
+  <si>
+    <t>W3 #6 機 改造 295 驅動輥 (1SET=4PCS) 本體未再生車修</t>
+  </si>
+  <si>
+    <t>W3 #6 機 改造 295 驅動輥 (1SET=4PCS) 本體再生車修</t>
+  </si>
+  <si>
+    <t>W3 #6 機 改造 265 驅動輥 (1SET=4PCS) 本體再生車修</t>
+  </si>
+  <si>
+    <t>W3 #6 機 改造 驅動輥(1SET=4PCS) 新品組裝</t>
+  </si>
+  <si>
+    <t>驅動輥輪軸心 本體未再生車修</t>
+  </si>
+  <si>
+    <t>輥輪動平衡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Included </t>
+  </si>
+  <si>
+    <t>輕輪動平衡</t>
   </si>
 </sst>
 </file>
@@ -885,12 +906,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25:XFD25"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -910,777 +931,815 @@
         <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D1" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="E1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="F1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="H7" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="72.75" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+    <row r="12" spans="1:8" ht="72.75" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="84.75" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+    <row r="15" spans="1:8" ht="84.75" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="36.75" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
+    <row r="16" spans="1:8" ht="36.75" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="E16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="36.75" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+    <row r="20" spans="1:8" ht="36.75" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+    <row r="21" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="8" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="8" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E23" s="9"/>
     </row>
     <row r="24" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="8" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E24" s="9"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="8" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B26" s="7"/>
+        <v>96</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" t="s">
-        <v>123</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G27" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>96</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" s="8" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E28" s="9"/>
-      <c r="F28" s="1"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>98</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B29" s="7"/>
       <c r="C29" s="2"/>
       <c r="D29" s="8" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>113</v>
-      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" s="7"/>
       <c r="C30" t="s">
-        <v>123</v>
-      </c>
-      <c r="E30" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1" t="s">
-        <v>124</v>
-      </c>
+      <c r="E31" s="9"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A33" s="2" t="s">
+    <row r="36" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C36" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="60.75" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>111</v>
-      </c>
+      <c r="E36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>76</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="60.75" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
         <v>1</v>
       </c>
-      <c r="C42" t="s">
-        <v>125</v>
-      </c>
-      <c r="G42" t="s">
-        <v>127</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B43" s="1" t="s">
+      <c r="C45" t="s">
+        <v>114</v>
+      </c>
+      <c r="G45" t="s">
+        <v>116</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" ht="36.75" x14ac:dyDescent="0.15">
-      <c r="A45" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A46" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="4"/>
+      <c r="C46" s="3"/>
       <c r="D46" s="8" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="8" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" ht="36.75" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="8" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="8" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="8" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="8" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="8" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="8" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="8" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="8" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="8" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="4"/>
+      <c r="D57" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="4"/>
+      <c r="D58" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="4"/>
+      <c r="D59" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A60" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60" t="s">
-        <v>120</v>
-      </c>
-      <c r="E60" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="24.75" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A63" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
+      </c>
+      <c r="C63" t="s">
+        <v>109</v>
+      </c>
+      <c r="E63" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
         <v>71</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
-        <v>131</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D68" s="9"/>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>119</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D71" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\喬宇\Desktop\github\roll-check-app-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA5DB4DD-26A3-E746-A52D-48691341E270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46B0CC39-8A2E-6A49-82DA-CCAB7753EAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="143">
   <si>
     <t>Item_Name</t>
   </si>
@@ -468,9 +468,6 @@
     <t>W3 #6 機 改造 驅動輥(1SET=4PCS) 新品組裝</t>
   </si>
   <si>
-    <t>驅動輥輪軸心 本體未再生車修</t>
-  </si>
-  <si>
     <t>輥輪動平衡</t>
   </si>
   <si>
@@ -478,6 +475,12 @@
   </si>
   <si>
     <t>輕輪動平衡</t>
+  </si>
+  <si>
+    <t>W3 #5 改造 250及300驅動輥輪軸心 本體未再生車修</t>
+  </si>
+  <si>
+    <t>AB</t>
   </si>
 </sst>
 </file>
@@ -909,9 +912,9 @@
   <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -984,7 +987,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
         <v>112</v>
@@ -998,7 +1001,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
         <v>112</v>
@@ -1085,7 +1088,7 @@
         <v>113</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -1230,7 +1233,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" t="s">
@@ -1240,7 +1243,7 @@
         <v>120</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>109</v>
@@ -1302,7 +1305,7 @@
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -1329,7 +1332,7 @@
         <v>120</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\喬宇\Desktop\github\roll-check-app-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46B0CC39-8A2E-6A49-82DA-CCAB7753EAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{421B17B5-399F-1941-AA3F-58DE7375DD94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="142">
   <si>
     <t>Item_Name</t>
   </si>
@@ -911,10 +911,10 @@
   </sheetPr>
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="B18" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1236,9 +1236,6 @@
         <v>140</v>
       </c>
       <c r="B30" s="7"/>
-      <c r="C30" t="s">
-        <v>112</v>
-      </c>
       <c r="D30" s="8" t="s">
         <v>120</v>
       </c>

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\喬宇\Desktop\github\roll-check-app-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{421B17B5-399F-1941-AA3F-58DE7375DD94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECCE2FA6-E26D-1749-9A0E-95F556104D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="143">
   <si>
     <t>Item_Name</t>
   </si>
@@ -481,6 +481,9 @@
   </si>
   <si>
     <t>AB</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -911,10 +914,10 @@
   </sheetPr>
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="B18" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1143,7 +1146,9 @@
       <c r="D22" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E22" s="9"/>
+      <c r="E22" s="9" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
@@ -1156,7 +1161,9 @@
       <c r="D23" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E23" s="9"/>
+      <c r="E23" s="9" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
@@ -1169,7 +1176,9 @@
       <c r="D24" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E24" s="9"/>
+      <c r="E24" s="9" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
@@ -1182,7 +1191,9 @@
       <c r="D25" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E25" s="9"/>
+      <c r="E25" s="9" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
@@ -1193,7 +1204,9 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="E26" s="9" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
@@ -1204,7 +1217,9 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="9" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
@@ -1214,7 +1229,9 @@
       <c r="D28" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E28" s="9"/>
+      <c r="E28" s="9" t="s">
+        <v>142</v>
+      </c>
       <c r="F28" s="9"/>
       <c r="G28" s="1"/>
     </row>
@@ -1227,7 +1244,9 @@
       <c r="D29" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E29" s="9"/>
+      <c r="E29" s="9" t="s">
+        <v>142</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
@@ -1240,7 +1259,7 @@
         <v>120</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>109</v>
@@ -1257,7 +1276,9 @@
       <c r="D31" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E31" s="9"/>
+      <c r="E31" s="9" t="s">
+        <v>142</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="7"/>
@@ -1273,7 +1294,9 @@
       <c r="D32" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E32" s="9"/>
+      <c r="E32" s="9" t="s">
+        <v>142</v>
+      </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="7"/>

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\喬宇\Desktop\github\roll-check-app-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECCE2FA6-E26D-1749-9A0E-95F556104D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40D353BF-BDE4-3F4B-A872-E1EA167B5A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="144">
   <si>
     <t>Item_Name</t>
   </si>
@@ -408,9 +408,6 @@
     <t>軸頸銲補</t>
   </si>
   <si>
-    <t>強制抄寫成：W3 SCC #6 ROLL 軸頸銲補一端</t>
-  </si>
-  <si>
     <t>輥輪表面研磨</t>
   </si>
   <si>
@@ -484,6 +481,9 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>強制抄寫成：W3 SCC #6 ROLL 軸頸銲補</t>
   </si>
 </sst>
 </file>
@@ -914,10 +914,10 @@
   </sheetPr>
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="H2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomLeft" activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -976,7 +976,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
         <v>109</v>
@@ -990,7 +990,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C5" t="s">
         <v>112</v>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C6" t="s">
         <v>112</v>
@@ -1085,13 +1085,13 @@
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>113</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -1144,10 +1144,10 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
@@ -1159,10 +1159,10 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
@@ -1174,10 +1174,10 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
@@ -1189,10 +1189,10 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
@@ -1205,7 +1205,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
       <c r="E26" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
@@ -1218,7 +1218,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
       <c r="E27" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
@@ -1227,10 +1227,10 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="1"/>
@@ -1242,21 +1242,21 @@
       <c r="B29" s="7"/>
       <c r="C29" s="2"/>
       <c r="D29" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B30" s="7"/>
       <c r="D30" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>113</v>
@@ -1274,10 +1274,10 @@
         <v>82</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1292,10 +1292,10 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -1349,10 +1349,10 @@
         <v>109</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -1429,19 +1429,19 @@
         <v>116</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>113</v>
@@ -1451,14 +1451,14 @@
     </row>
     <row r="47" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>113</v>
@@ -1468,14 +1468,14 @@
     </row>
     <row r="48" spans="1:8" ht="36.75" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>113</v>
@@ -1485,14 +1485,14 @@
     </row>
     <row r="49" spans="1:7" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>113</v>
@@ -1502,14 +1502,14 @@
     </row>
     <row r="50" spans="1:7" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>113</v>
@@ -1519,14 +1519,14 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>113</v>
@@ -1536,14 +1536,14 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>113</v>
@@ -1553,14 +1553,14 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>113</v>
@@ -1570,14 +1570,14 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>113</v>
@@ -1587,14 +1587,14 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>113</v>
@@ -1604,14 +1604,14 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>113</v>
@@ -1621,14 +1621,14 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>113</v>
@@ -1638,14 +1638,14 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>113</v>
@@ -1655,14 +1655,14 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>113</v>
@@ -1755,10 +1755,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\喬宇\Desktop\github\roll-check-app-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40D353BF-BDE4-3F4B-A872-E1EA167B5A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{393BF219-CF98-EB4C-AFE8-5E62DF3C4913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="145">
   <si>
     <t>Item_Name</t>
   </si>
@@ -167,45 +167,6 @@
     <t>0962A 軸頸端蓋車修加工</t>
   </si>
   <si>
-    <t>0979A 測試平台測試輥輪滾動真圓度±0.1mm</t>
-  </si>
-  <si>
-    <t>0980A 測試平台測試輥輪滾動真圓度±0.1mm</t>
-  </si>
-  <si>
-    <t>0981A 一、手工磨除軸心外徑髒汙鏽皮二、吊裝車床機台測試軸心滾動真圓度±0.5mm</t>
-  </si>
-  <si>
-    <t>0982A 手工磨除輥輪內徑熱處理後殘留碳化層</t>
-  </si>
-  <si>
-    <t>0984A 直徑245mm以上</t>
-  </si>
-  <si>
-    <t>0985A 直徑269mm以上</t>
-  </si>
-  <si>
-    <t>0986A 直徑298mm以上</t>
-  </si>
-  <si>
-    <t>0987A 車修至直徑234mm且無裂痕</t>
-  </si>
-  <si>
-    <t>0988A 車修至直徑259mm且無裂痕</t>
-  </si>
-  <si>
-    <t>0989A 車修至直徑289mm且無裂痕</t>
-  </si>
-  <si>
-    <t>0990A 直徑240mm +0,-0.185</t>
-  </si>
-  <si>
-    <t>0991A 直徑265mm +0,-0.21</t>
-  </si>
-  <si>
-    <t>0992A 直徑295mm +0,-0.21</t>
-  </si>
-  <si>
     <t>W4 16〞*5043L TABLE ROLL ROLL BODY,NECK未再生車修</t>
   </si>
   <si>
@@ -287,13 +248,7 @@
     <t>W3 #5 改造 250 驅動輥輪 本體銲補</t>
   </si>
   <si>
-    <t>0661A 直徑253mm以上</t>
-  </si>
-  <si>
     <t>W3 #5 改造 300 驅動輥輪 本體銲補</t>
-  </si>
-  <si>
-    <t>0663A 直徑303mm以上</t>
   </si>
   <si>
     <t>Logic_Prompt</t>
@@ -315,19 +270,10 @@
     <t>W3 #5 改造 250 驅動輥輪 新品組裝</t>
   </si>
   <si>
-    <t>0631A 測試平台測試輥輪滾動真圓度±0.1mm</t>
-  </si>
-  <si>
     <t>W3 #5 改造 250 驅動輥輪 舊品拆裝</t>
   </si>
   <si>
-    <t>0632A 測試平台測試輥輪滾動真圓度±0.1mm</t>
-  </si>
-  <si>
     <t>W3 #5 改造 300 驅動輥輪 新品組裝</t>
-  </si>
-  <si>
-    <t>0633A 測試平台測試輥輪滾動真圓度±0.1mm</t>
   </si>
   <si>
     <t>W3 #5 改造 300 驅動輥輪 舊品拆裝</t>
@@ -341,54 +287,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0634A 測試平台測試輥輪滾動真圓度±0.1mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0656A 車修至直徑147mm且無裂痕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0957A 鍵槽寬18mm -0.018,-0.061 | 0957A 鍵槽寬22mm -0.022, -0.074 | 0957A 鍵槽寬22mm -0.022,-0.074 | 0957A 鍵槽寬28mm -0.022,-0.074 | 0957A 鍵槽寬32mm +0,-0.062</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0657A 車修至直徑 150mm -0.014, -0.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0669A 一、車修內徑45mm +0,+0.039二、車修內徑50mm +0,+0.039</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>尺寸跟規範一樣即合格。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0983A 一、車修內孔徑161mm+0,+0.03 二、車修內孔徑159mm+0,+0.03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>W3 SCC ROLL旋轉接頭拆裝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>須符合規格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>全廠 ROLL(全部)KEYWAY CUT KEYWAY CUTTING</t>
   </si>
   <si>
     <t>WX ROLL熱處理</t>
   </si>
   <si>
-    <t>豁免</t>
-  </si>
-  <si>
-    <t>0602A 車修至直徑135mm~129mm且無裂痕 | 0602A 車修至直徑145mm~130mm且無裂痕</t>
-  </si>
-  <si>
     <t>Category_Rule</t>
   </si>
   <si>
@@ -396,9 +312,6 @@
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>銲補</t>
   </si>
   <si>
     <t>Process_Rule</t>
@@ -484,6 +397,9 @@
   </si>
   <si>
     <t>強制抄寫成：W3 SCC #6 ROLL 軸頸銲補</t>
+  </si>
+  <si>
+    <t>Skip</t>
   </si>
 </sst>
 </file>
@@ -914,10 +830,10 @@
   </sheetPr>
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="H2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H45" sqref="H45"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -934,94 +850,85 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" t="s">
         <v>73</v>
       </c>
-      <c r="C1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>88</v>
       </c>
-      <c r="G1" t="s">
-        <v>115</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1076,22 +983,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="36.75" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="C16" s="6"/>
       <c r="D16" s="8" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -1135,149 +1039,129 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="8" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="8" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="8" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="8" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
       <c r="E26" s="9" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
       <c r="E27" s="9" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="8" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="2"/>
       <c r="D29" s="8" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="B30" s="7"/>
       <c r="D30" s="8" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>109</v>
+        <v>87</v>
+      </c>
+      <c r="F30" t="s">
+        <v>116</v>
       </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>82</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B31" s="7"/>
       <c r="D31" s="8" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1285,17 +1169,15 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>84</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B32" s="7"/>
       <c r="C32" s="2"/>
       <c r="D32" s="8" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1306,10 +1188,10 @@
         <v>25</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="E33" s="1"/>
     </row>
@@ -1321,11 +1203,11 @@
         <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -1346,13 +1228,13 @@
         <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -1375,12 +1257,12 @@
         <v>35</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>36</v>
@@ -1388,7 +1270,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>37</v>
@@ -1396,7 +1278,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>38</v>
@@ -1404,7 +1286,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>39</v>
@@ -1423,342 +1305,300 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G45" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="8" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="8" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:8" ht="36.75" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="8" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="8" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="8" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="8" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="8" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="8" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="8" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="8" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="8" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="8" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="8" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="8" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C63" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E63" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\喬宇\Desktop\github\roll-check-app-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{393BF219-CF98-EB4C-AFE8-5E62DF3C4913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E319DBE2-7F0B-754B-A2F7-EB799AACB893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$H$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$H$70</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="118">
   <si>
     <t>Item_Name</t>
   </si>
@@ -400,6 +400,9 @@
   </si>
   <si>
     <t>Skip</t>
+  </si>
+  <si>
+    <t>輥輪表面研磨 輕面研磨</t>
   </si>
 </sst>
 </file>
@@ -828,12 +831,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -906,18 +909,21 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" t="s">
-        <v>87</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
         <v>86</v>
@@ -928,132 +934,131 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+    <row r="9" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="72.75" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+    <row r="13" spans="1:8" ht="72.75" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="84.75" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+    <row r="16" spans="1:8" ht="84.75" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="8" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="E17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="36.75" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+    <row r="21" spans="1:8" ht="36.75" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+    <row r="22" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="8" t="s">
@@ -1065,7 +1070,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="8" t="s">
@@ -1077,7 +1082,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="8" t="s">
@@ -1089,17 +1094,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="1"/>
+      <c r="D26" s="8" t="s">
+        <v>92</v>
+      </c>
       <c r="E26" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
@@ -1109,23 +1116,18 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="8" t="s">
-        <v>92</v>
-      </c>
+      <c r="D28" s="1"/>
       <c r="E28" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="7"/>
+        <v>66</v>
+      </c>
       <c r="C29" s="2"/>
       <c r="D29" s="8" t="s">
         <v>92</v>
@@ -1133,46 +1135,48 @@
       <c r="E29" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F29" s="1"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="B30" s="7"/>
+      <c r="C30" s="2"/>
       <c r="D30" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" t="s">
-        <v>116</v>
-      </c>
+      <c r="E30" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="B31" s="7"/>
+      <c r="C31" t="s">
+        <v>86</v>
+      </c>
       <c r="D31" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" t="s">
+        <v>116</v>
+      </c>
       <c r="G31" s="1"/>
-      <c r="H31" s="7"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B32" s="7"/>
-      <c r="C32" s="2"/>
       <c r="D32" s="8" t="s">
         <v>92</v>
       </c>
@@ -1183,156 +1187,158 @@
       <c r="G32" s="1"/>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>86</v>
       </c>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="2" t="s">
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>116</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1" t="s">
+      <c r="D35" s="1"/>
+      <c r="E35" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A36" s="2" t="s">
+    <row r="37" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>116</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D37" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="60.75" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
+    <row r="40" spans="1:8" ht="60.75" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
         <v>1</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>116</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G46" t="s">
         <v>89</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="3" t="s">
+    <row r="47" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C47" s="4"/>
+      <c r="C47" s="3"/>
       <c r="D47" s="8" t="s">
         <v>94</v>
       </c>
@@ -1342,9 +1348,9 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="8" t="s">
@@ -1358,7 +1364,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="8" t="s">
@@ -1372,7 +1378,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="8" t="s">
@@ -1386,7 +1392,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="8" t="s">
@@ -1400,7 +1406,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="8" t="s">
@@ -1414,7 +1420,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="8" t="s">
@@ -1428,7 +1434,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="8" t="s">
@@ -1442,7 +1448,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="8" t="s">
@@ -1456,7 +1462,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="8" t="s">
@@ -1470,7 +1476,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="8" t="s">
@@ -1484,7 +1490,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="8" t="s">
@@ -1498,7 +1504,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="8" t="s">
@@ -1510,99 +1516,113 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
-        <v>42</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>43</v>
-      </c>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A60" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
         <v>44</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="5" t="s">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A64" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" t="s">
         <v>116</v>
       </c>
-      <c r="E63" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
-        <v>48</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>49</v>
+      <c r="E64" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
+        <v>56</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
         <v>58</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
         <v>91</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D71" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D71" s="9"/>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D72" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\喬宇\Desktop\github\roll-check-app-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E319DBE2-7F0B-754B-A2F7-EB799AACB893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5027E46E-D2BD-BA4A-A0D0-9920C385A9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="119">
   <si>
     <t>Item_Name</t>
   </si>
@@ -403,6 +403,9 @@
   </si>
   <si>
     <t>輥輪表面研磨 輕面研磨</t>
+  </si>
+  <si>
+    <t>未再生車修</t>
   </si>
 </sst>
 </file>
@@ -836,7 +839,7 @@
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1128,7 +1131,9 @@
       <c r="A29" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="D29" s="8" t="s">
         <v>92</v>
       </c>

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\喬宇\Desktop\github\roll-check-app-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5027E46E-D2BD-BA4A-A0D0-9920C385A9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5E86F88-CE87-B24A-8D9F-9B830A896185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="121">
   <si>
     <t>Item_Name</t>
   </si>
@@ -249,10 +249,6 @@
   </si>
   <si>
     <t>W3 #5 改造 300 驅動輥輪 本體銲補</t>
-  </si>
-  <si>
-    <t>Logic_Prompt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Unit_Rule_Local</t>
@@ -318,9 +314,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>軸頸銲補</t>
-  </si>
-  <si>
     <t>輥輪表面研磨</t>
   </si>
   <si>
@@ -396,9 +389,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>強制抄寫成：W3 SCC #6 ROLL 軸頸銲補</t>
-  </si>
-  <si>
     <t>Skip</t>
   </si>
   <si>
@@ -406,6 +396,12 @@
   </si>
   <si>
     <t>未再生車修</t>
+  </si>
+  <si>
+    <t>Force_Rename</t>
+  </si>
+  <si>
+    <t>W3 SCC #6 ROLL 軸頸銲補</t>
   </si>
 </sst>
 </file>
@@ -836,10 +832,10 @@
   </sheetPr>
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="F34" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -859,91 +855,91 @@
         <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
         <v>71</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>72</v>
       </c>
-      <c r="F1" t="s">
-        <v>73</v>
-      </c>
       <c r="G1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -1009,13 +1005,13 @@
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -1061,70 +1057,70 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
       <c r="E27" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
       <c r="E28" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
@@ -1132,13 +1128,13 @@
         <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="1"/>
@@ -1150,30 +1146,30 @@
       <c r="B30" s="7"/>
       <c r="C30" s="2"/>
       <c r="D30" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F31" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G31" s="1"/>
     </row>
@@ -1183,10 +1179,10 @@
       </c>
       <c r="B32" s="7"/>
       <c r="D32" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1199,10 +1195,10 @@
       <c r="B33" s="7"/>
       <c r="C33" s="2"/>
       <c r="D33" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1213,10 +1209,10 @@
         <v>25</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E34" s="1"/>
     </row>
@@ -1228,11 +1224,11 @@
         <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -1253,13 +1249,13 @@
         <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -1282,7 +1278,7 @@
         <v>35</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
@@ -1329,208 +1325,202 @@
       <c r="A46" t="s">
         <v>1</v>
       </c>
-      <c r="C46" t="s">
-        <v>116</v>
-      </c>
-      <c r="G46" t="s">
-        <v>89</v>
-      </c>
       <c r="H46" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -1558,16 +1548,16 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C64" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="24.75" x14ac:dyDescent="0.15">
@@ -1620,10 +1610,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
+        <v>89</v>
+      </c>
+      <c r="D71" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\喬宇\Desktop\github\roll-check-app-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5E86F88-CE87-B24A-8D9F-9B830A896185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9CD2F38-328A-F54A-9929-18ADAEF7AB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="118">
   <si>
     <t>Item_Name</t>
   </si>
@@ -835,7 +835,7 @@
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="F34" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
